--- a/cadastro equipes e demandas.xlsx
+++ b/cadastro equipes e demandas.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GLWFS02.lwart.net\LWC-FLORESTAL\Qualidade_Florestal\03- ADMINISTRATIVO\2023\06- COLABORADORES\Gabriel\22 - Otimização\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E737DC0-FD6D-4E02-B35A-727293298011}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Capacidade por equipe"/>
-    <sheet r:id="rId2" sheetId="2" name="Demanda por fazenda"/>
+    <sheet name="Capacidade por equipe" sheetId="1" r:id="rId1"/>
+    <sheet name="Demanda por fazenda" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Demanda por fazenda'!$A$1:$E$802</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Demanda por fazenda'!$A$1:$E$802</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -4877,8 +4883,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4902,7 +4907,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4926,57 +4931,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4987,10 +4996,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5028,71 +5037,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5120,7 +5129,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -5143,11 +5152,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -5156,13 +5165,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5172,7 +5181,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5181,7 +5190,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5190,7 +5199,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5198,10 +5207,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -5266,227 +5275,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>1609</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1611</v>
       </c>
       <c r="B2" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C2" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100000</v>
       </c>
       <c r="D2" s="7">
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1612</v>
       </c>
       <c r="B3" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C3" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100000</v>
       </c>
       <c r="D3" s="7">
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1613</v>
       </c>
       <c r="B4" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C4" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100000</v>
       </c>
       <c r="D4" s="7">
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1614</v>
       </c>
       <c r="B5" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C5" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C5" s="6">
+        <v>100000</v>
       </c>
       <c r="D5" s="7">
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1615</v>
       </c>
       <c r="B6" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C6" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C6" s="6">
+        <v>100000</v>
       </c>
       <c r="D6" s="7">
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1616</v>
       </c>
       <c r="B7" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C7" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C7" s="6">
+        <v>100000</v>
       </c>
       <c r="D7" s="7">
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1617</v>
       </c>
       <c r="B8" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C8" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>100000</v>
       </c>
       <c r="D8" s="7">
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>1611</v>
       </c>
       <c r="B9" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C9" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C9" s="6">
+        <v>100000</v>
       </c>
       <c r="D9" s="7">
         <v>45352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>1612</v>
       </c>
       <c r="B10" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C10" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>100000</v>
       </c>
       <c r="D10" s="7">
         <v>45352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1613</v>
       </c>
       <c r="B11" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C11" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>100000</v>
       </c>
       <c r="D11" s="7">
         <v>45352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1614</v>
       </c>
       <c r="B12" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C12" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100000</v>
       </c>
       <c r="D12" s="7">
         <v>45352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1615</v>
       </c>
       <c r="B13" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C13" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>100000</v>
       </c>
       <c r="D13" s="7">
         <v>45352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1616</v>
       </c>
       <c r="B14" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C14" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C14" s="6">
+        <v>100000</v>
       </c>
       <c r="D14" s="7">
         <v>45352</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1617</v>
       </c>
       <c r="B15" s="6">
-        <v>7400</v>
-      </c>
-      <c r="C15" s="12">
-        <v>5000</v>
+        <v>100000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>100000</v>
       </c>
       <c r="D15" s="7">
         <v>45352</v>
@@ -5494,28 +5505,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E802"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="43.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5532,7 +5544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -5549,7 +5561,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" hidden="1">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5566,7 +5578,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -5583,7 +5595,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -5600,7 +5612,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" hidden="1">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -5608,7 +5620,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6">
-        <v>820.6099999999998</v>
+        <v>820.60999999999979</v>
       </c>
       <c r="D6" s="7">
         <v>45352</v>
@@ -5617,7 +5629,7 @@
         <v>45372.171423611115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -5634,7 +5646,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" hidden="1">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -5651,7 +5663,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -5659,7 +5671,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>97.32000000000002</v>
+        <v>97.320000000000022</v>
       </c>
       <c r="D9" s="7">
         <v>45383</v>
@@ -5668,7 +5680,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -5685,7 +5697,7 @@
         <v>45385.452835648146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -5702,7 +5714,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -5710,7 +5722,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="6">
-        <v>872.3799999999999</v>
+        <v>872.37999999999988</v>
       </c>
       <c r="D12" s="7">
         <v>45383</v>
@@ -5719,7 +5731,7 @@
         <v>45386.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="6">
-        <v>754.8799999999998</v>
+        <v>754.87999999999977</v>
       </c>
       <c r="D13" s="7">
         <v>45383</v>
@@ -5736,7 +5748,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" hidden="1">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -5753,7 +5765,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -5770,7 +5782,7 @@
         <v>45394.3125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -5787,7 +5799,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -5804,7 +5816,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>37</v>
       </c>
@@ -5821,7 +5833,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -5838,7 +5850,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -5855,7 +5867,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" hidden="1">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -5872,7 +5884,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -5889,7 +5901,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>47</v>
       </c>
@@ -5897,7 +5909,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="6">
-        <v>607.3899999999999</v>
+        <v>607.38999999999987</v>
       </c>
       <c r="D23" s="7">
         <v>45383</v>
@@ -5906,7 +5918,7 @@
         <v>45387.034479166665</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>49</v>
       </c>
@@ -5923,7 +5935,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" hidden="1">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -5940,7 +5952,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" hidden="1">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -5957,7 +5969,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -5974,7 +5986,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -5991,7 +6003,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" hidden="1">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
@@ -5999,7 +6011,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="6">
-        <v>864.0199999999999</v>
+        <v>864.01999999999987</v>
       </c>
       <c r="D29" s="7">
         <v>45352</v>
@@ -6008,7 +6020,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>61</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
@@ -6042,7 +6054,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
@@ -6059,7 +6071,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
@@ -6076,7 +6088,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -6084,7 +6096,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="6">
-        <v>509.9200000000001</v>
+        <v>509.92000000000007</v>
       </c>
       <c r="D34" s="7">
         <v>45383</v>
@@ -6093,7 +6105,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" hidden="1">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
@@ -6101,7 +6113,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="6">
-        <v>141.83</v>
+        <v>141.83000000000001</v>
       </c>
       <c r="D35" s="7">
         <v>45352</v>
@@ -6110,7 +6122,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" hidden="1">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
@@ -6127,7 +6139,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
@@ -6161,7 +6173,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
@@ -6178,7 +6190,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
@@ -6195,7 +6207,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
@@ -6209,10 +6221,10 @@
         <v>45383</v>
       </c>
       <c r="E41" s="7">
-        <v>45393.11111111111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>45393.111111111109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
@@ -6229,7 +6241,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" hidden="1">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
@@ -6237,7 +6249,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="6">
-        <v>692.3800000000001</v>
+        <v>692.38000000000011</v>
       </c>
       <c r="D43" s="7">
         <v>45352</v>
@@ -6246,7 +6258,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" hidden="1">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
@@ -6263,7 +6275,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" hidden="1">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>91</v>
       </c>
@@ -6280,7 +6292,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -6297,7 +6309,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
@@ -6314,7 +6326,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -6331,7 +6343,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -6348,7 +6360,7 @@
         <v>45395.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -6356,7 +6368,7 @@
         <v>102</v>
       </c>
       <c r="C50" s="6">
-        <v>71.96000000000001</v>
+        <v>71.960000000000008</v>
       </c>
       <c r="D50" s="7">
         <v>45383</v>
@@ -6365,7 +6377,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -6382,7 +6394,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -6399,7 +6411,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -6416,7 +6428,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>109</v>
       </c>
@@ -6424,7 +6436,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="6">
-        <v>76.49</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="D54" s="7">
         <v>45383</v>
@@ -6433,7 +6445,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" hidden="1">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>111</v>
       </c>
@@ -6450,7 +6462,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" hidden="1">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>113</v>
       </c>
@@ -6458,7 +6470,7 @@
         <v>114</v>
       </c>
       <c r="C56" s="6">
-        <v>17.85</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D56" s="7">
         <v>45352</v>
@@ -6467,7 +6479,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>115</v>
       </c>
@@ -6484,7 +6496,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>117</v>
       </c>
@@ -6501,7 +6513,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>119</v>
       </c>
@@ -6518,7 +6530,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" hidden="1">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>121</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>123</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
@@ -6569,7 +6581,7 @@
         <v>45395.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -6586,7 +6598,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
@@ -6611,7 +6623,7 @@
         <v>132</v>
       </c>
       <c r="C65" s="6">
-        <v>81.67999999999999</v>
+        <v>81.679999999999993</v>
       </c>
       <c r="D65" s="7">
         <v>45383</v>
@@ -6620,7 +6632,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" hidden="1">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>133</v>
       </c>
@@ -6637,7 +6649,7 @@
         <v>45382.142858796295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" hidden="1">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
@@ -6654,7 +6666,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>137</v>
       </c>
@@ -6668,10 +6680,10 @@
         <v>45383</v>
       </c>
       <c r="E68" s="7">
-        <v>45390.64706018518</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+        <v>45390.647060185183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>139</v>
       </c>
@@ -6688,7 +6700,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" hidden="1">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>141</v>
       </c>
@@ -6702,10 +6714,10 @@
         <v>45352</v>
       </c>
       <c r="E70" s="7">
-        <v>45373.92857638889</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" hidden="1">
+        <v>45373.928576388891</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>143</v>
       </c>
@@ -6713,7 +6725,7 @@
         <v>144</v>
       </c>
       <c r="C71" s="6">
-        <v>134.89</v>
+        <v>134.88999999999999</v>
       </c>
       <c r="D71" s="7">
         <v>45352</v>
@@ -6722,7 +6734,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" hidden="1">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>145</v>
       </c>
@@ -6739,7 +6751,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>147</v>
       </c>
@@ -6756,7 +6768,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" hidden="1">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>149</v>
       </c>
@@ -6764,7 +6776,7 @@
         <v>150</v>
       </c>
       <c r="C74" s="6">
-        <v>542.6000000000003</v>
+        <v>542.60000000000025</v>
       </c>
       <c r="D74" s="7">
         <v>45352</v>
@@ -6773,7 +6785,7 @@
         <v>45371.884618055556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>151</v>
       </c>
@@ -6790,7 +6802,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>153</v>
       </c>
@@ -6807,7 +6819,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>155</v>
       </c>
@@ -6824,7 +6836,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>157</v>
       </c>
@@ -6841,7 +6853,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" hidden="1">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>159</v>
       </c>
@@ -6858,7 +6870,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" hidden="1">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>161</v>
       </c>
@@ -6875,7 +6887,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>163</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>164</v>
       </c>
       <c r="C81" s="6">
-        <v>57.63999999999999</v>
+        <v>57.639999999999993</v>
       </c>
       <c r="D81" s="7">
         <v>45383</v>
@@ -6892,7 +6904,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" hidden="1">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>165</v>
       </c>
@@ -6909,7 +6921,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>167</v>
       </c>
@@ -6926,7 +6938,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>169</v>
       </c>
@@ -6943,7 +6955,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>171</v>
       </c>
@@ -6960,7 +6972,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>173</v>
       </c>
@@ -6977,7 +6989,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>175</v>
       </c>
@@ -6985,7 +6997,7 @@
         <v>176</v>
       </c>
       <c r="C87" s="6">
-        <v>729.8000000000001</v>
+        <v>729.80000000000007</v>
       </c>
       <c r="D87" s="7">
         <v>45383</v>
@@ -6994,7 +7006,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
@@ -7002,7 +7014,7 @@
         <v>178</v>
       </c>
       <c r="C88" s="6">
-        <v>67.65</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="D88" s="7">
         <v>45383</v>
@@ -7011,7 +7023,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" hidden="1">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>179</v>
       </c>
@@ -7028,7 +7040,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" hidden="1">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>181</v>
       </c>
@@ -7045,7 +7057,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>183</v>
       </c>
@@ -7062,7 +7074,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>185</v>
       </c>
@@ -7070,7 +7082,7 @@
         <v>186</v>
       </c>
       <c r="C92" s="6">
-        <v>539.1399999999999</v>
+        <v>539.13999999999987</v>
       </c>
       <c r="D92" s="7">
         <v>45383</v>
@@ -7079,7 +7091,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>187</v>
       </c>
@@ -7096,7 +7108,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" hidden="1">
+    <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>189</v>
       </c>
@@ -7113,7 +7125,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>191</v>
       </c>
@@ -7130,7 +7142,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" hidden="1">
+    <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>193</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>194</v>
       </c>
       <c r="C96" s="6">
-        <v>67.74000000000001</v>
+        <v>67.740000000000009</v>
       </c>
       <c r="D96" s="7">
         <v>45352</v>
@@ -7147,7 +7159,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>195</v>
       </c>
@@ -7164,7 +7176,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>197</v>
       </c>
@@ -7172,7 +7184,7 @@
         <v>198</v>
       </c>
       <c r="C98" s="6">
-        <v>521.3799999999999</v>
+        <v>521.37999999999988</v>
       </c>
       <c r="D98" s="7">
         <v>45383</v>
@@ -7181,7 +7193,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>199</v>
       </c>
@@ -7198,7 +7210,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" hidden="1">
+    <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>201</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>203</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>205</v>
       </c>
@@ -7249,7 +7261,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" hidden="1">
+    <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>207</v>
       </c>
@@ -7266,7 +7278,7 @@
         <v>45378.666666666664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" hidden="1">
+    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>209</v>
       </c>
@@ -7283,7 +7295,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" hidden="1">
+    <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>211</v>
       </c>
@@ -7300,7 +7312,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" hidden="1">
+    <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>213</v>
       </c>
@@ -7317,7 +7329,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>215</v>
       </c>
@@ -7325,7 +7337,7 @@
         <v>216</v>
       </c>
       <c r="C107" s="6">
-        <v>489.8500000000001</v>
+        <v>489.85000000000008</v>
       </c>
       <c r="D107" s="7">
         <v>45383</v>
@@ -7334,7 +7346,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>217</v>
       </c>
@@ -7351,7 +7363,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" hidden="1">
+    <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>219</v>
       </c>
@@ -7368,7 +7380,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>221</v>
       </c>
@@ -7385,7 +7397,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>223</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>224</v>
       </c>
       <c r="C111" s="6">
-        <v>944.5099999999999</v>
+        <v>944.50999999999988</v>
       </c>
       <c r="D111" s="7">
         <v>45383</v>
@@ -7402,7 +7414,7 @@
         <v>45393.705879629626</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>225</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>227</v>
       </c>
@@ -7436,7 +7448,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" hidden="1">
+    <row r="114" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>229</v>
       </c>
@@ -7453,7 +7465,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" hidden="1">
+    <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>231</v>
       </c>
@@ -7470,7 +7482,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" hidden="1">
+    <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>233</v>
       </c>
@@ -7487,7 +7499,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>235</v>
       </c>
@@ -7504,7 +7516,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" hidden="1">
+    <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>237</v>
       </c>
@@ -7521,7 +7533,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>239</v>
       </c>
@@ -7538,7 +7550,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>241</v>
       </c>
@@ -7546,7 +7558,7 @@
         <v>242</v>
       </c>
       <c r="C120" s="6">
-        <v>910.6200000000002</v>
+        <v>910.62000000000023</v>
       </c>
       <c r="D120" s="7">
         <v>45383</v>
@@ -7555,7 +7567,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" hidden="1">
+    <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>243</v>
       </c>
@@ -7563,7 +7575,7 @@
         <v>244</v>
       </c>
       <c r="C121" s="6">
-        <v>275.85</v>
+        <v>275.85000000000002</v>
       </c>
       <c r="D121" s="7">
         <v>45352</v>
@@ -7572,7 +7584,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>245</v>
       </c>
@@ -7589,7 +7601,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" hidden="1">
+    <row r="123" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>247</v>
       </c>
@@ -7606,7 +7618,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>249</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>251</v>
       </c>
@@ -7640,7 +7652,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>253</v>
       </c>
@@ -7657,7 +7669,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" hidden="1">
+    <row r="127" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>255</v>
       </c>
@@ -7674,7 +7686,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>257</v>
       </c>
@@ -7682,7 +7694,7 @@
         <v>258</v>
       </c>
       <c r="C128" s="6">
-        <v>16.42</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="D128" s="7">
         <v>45383</v>
@@ -7691,7 +7703,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>259</v>
       </c>
@@ -7699,7 +7711,7 @@
         <v>260</v>
       </c>
       <c r="C129" s="6">
-        <v>467.0899999999999</v>
+        <v>467.08999999999992</v>
       </c>
       <c r="D129" s="7">
         <v>45383</v>
@@ -7708,7 +7720,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>261</v>
       </c>
@@ -7725,7 +7737,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>263</v>
       </c>
@@ -7742,7 +7754,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>265</v>
       </c>
@@ -7756,10 +7768,10 @@
         <v>45383</v>
       </c>
       <c r="E132" s="7">
-        <v>45383.0769212963</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" hidden="1">
+        <v>45383.076921296299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>267</v>
       </c>
@@ -7776,7 +7788,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>269</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>270</v>
       </c>
       <c r="C134" s="6">
-        <v>81.15</v>
+        <v>81.150000000000006</v>
       </c>
       <c r="D134" s="7">
         <v>45383</v>
@@ -7793,7 +7805,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>271</v>
       </c>
@@ -7801,7 +7813,7 @@
         <v>272</v>
       </c>
       <c r="C135" s="6">
-        <v>88.33000000000003</v>
+        <v>88.330000000000027</v>
       </c>
       <c r="D135" s="7">
         <v>45383</v>
@@ -7810,7 +7822,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" hidden="1">
+    <row r="136" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>273</v>
       </c>
@@ -7827,7 +7839,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>275</v>
       </c>
@@ -7844,7 +7856,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>277</v>
       </c>
@@ -7861,7 +7873,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>279</v>
       </c>
@@ -7878,7 +7890,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>281</v>
       </c>
@@ -7895,7 +7907,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" hidden="1">
+    <row r="141" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>283</v>
       </c>
@@ -7912,7 +7924,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>285</v>
       </c>
@@ -7929,7 +7941,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>287</v>
       </c>
@@ -7946,7 +7958,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>289</v>
       </c>
@@ -7963,7 +7975,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" hidden="1">
+    <row r="145" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>291</v>
       </c>
@@ -7971,7 +7983,7 @@
         <v>292</v>
       </c>
       <c r="C145" s="6">
-        <v>57.24999999999999</v>
+        <v>57.249999999999993</v>
       </c>
       <c r="D145" s="7">
         <v>45352</v>
@@ -7980,7 +7992,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" hidden="1">
+    <row r="146" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>293</v>
       </c>
@@ -7997,7 +8009,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>295</v>
       </c>
@@ -8014,7 +8026,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>297</v>
       </c>
@@ -8031,7 +8043,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>299</v>
       </c>
@@ -8048,7 +8060,7 @@
         <v>45387.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>301</v>
       </c>
@@ -8065,7 +8077,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>303</v>
       </c>
@@ -8082,7 +8094,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>305</v>
       </c>
@@ -8090,7 +8102,7 @@
         <v>306</v>
       </c>
       <c r="C152" s="6">
-        <v>337.8499999999999</v>
+        <v>337.84999999999991</v>
       </c>
       <c r="D152" s="7">
         <v>45383</v>
@@ -8099,7 +8111,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>307</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>308</v>
       </c>
       <c r="C153" s="6">
-        <v>69.15</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="D153" s="7">
         <v>45383</v>
@@ -8116,7 +8128,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" hidden="1">
+    <row r="154" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>309</v>
       </c>
@@ -8124,16 +8136,16 @@
         <v>310</v>
       </c>
       <c r="C154" s="6">
-        <v>924.0800000000002</v>
+        <v>924.08000000000015</v>
       </c>
       <c r="D154" s="7">
         <v>45352</v>
       </c>
       <c r="E154" s="7">
-        <v>45371.04615740741</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+        <v>45371.046157407407</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>311</v>
       </c>
@@ -8141,7 +8153,7 @@
         <v>312</v>
       </c>
       <c r="C155" s="6">
-        <v>133.45</v>
+        <v>133.44999999999999</v>
       </c>
       <c r="D155" s="7">
         <v>45383</v>
@@ -8150,7 +8162,7 @@
         <v>45384.666666666664</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" hidden="1">
+    <row r="156" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>313</v>
       </c>
@@ -8167,7 +8179,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>315</v>
       </c>
@@ -8184,7 +8196,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>317</v>
       </c>
@@ -8201,7 +8213,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" hidden="1">
+    <row r="159" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>319</v>
       </c>
@@ -8209,7 +8221,7 @@
         <v>320</v>
       </c>
       <c r="C159" s="6">
-        <v>446.2500000000001</v>
+        <v>446.25000000000011</v>
       </c>
       <c r="D159" s="7">
         <v>45352</v>
@@ -8218,7 +8230,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>321</v>
       </c>
@@ -8235,7 +8247,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>323</v>
       </c>
@@ -8252,7 +8264,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>325</v>
       </c>
@@ -8269,7 +8281,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" hidden="1">
+    <row r="163" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>327</v>
       </c>
@@ -8286,7 +8298,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" hidden="1">
+    <row r="164" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>329</v>
       </c>
@@ -8294,7 +8306,7 @@
         <v>330</v>
       </c>
       <c r="C164" s="6">
-        <v>72.03999999999999</v>
+        <v>72.039999999999992</v>
       </c>
       <c r="D164" s="7">
         <v>45352</v>
@@ -8303,7 +8315,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>331</v>
       </c>
@@ -8320,7 +8332,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>333</v>
       </c>
@@ -8337,7 +8349,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>335</v>
       </c>
@@ -8354,7 +8366,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>337</v>
       </c>
@@ -8371,7 +8383,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>339</v>
       </c>
@@ -8388,7 +8400,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" hidden="1">
+    <row r="170" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>341</v>
       </c>
@@ -8396,7 +8408,7 @@
         <v>342</v>
       </c>
       <c r="C170" s="6">
-        <v>66.05000000000001</v>
+        <v>66.050000000000011</v>
       </c>
       <c r="D170" s="7">
         <v>45352</v>
@@ -8405,7 +8417,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" hidden="1">
+    <row r="171" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>343</v>
       </c>
@@ -8413,7 +8425,7 @@
         <v>344</v>
       </c>
       <c r="C171" s="6">
-        <v>87.08999999999999</v>
+        <v>87.089999999999989</v>
       </c>
       <c r="D171" s="7">
         <v>45352</v>
@@ -8422,7 +8434,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" hidden="1">
+    <row r="172" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>345</v>
       </c>
@@ -8439,7 +8451,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" hidden="1">
+    <row r="173" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>347</v>
       </c>
@@ -8456,7 +8468,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>349</v>
       </c>
@@ -8473,7 +8485,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" hidden="1">
+    <row r="175" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>351</v>
       </c>
@@ -8481,7 +8493,7 @@
         <v>352</v>
       </c>
       <c r="C175" s="6">
-        <v>20.15</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="D175" s="7">
         <v>45352</v>
@@ -8490,7 +8502,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>353</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>354</v>
       </c>
       <c r="C176" s="6">
-        <v>87.66999999999999</v>
+        <v>87.669999999999987</v>
       </c>
       <c r="D176" s="7">
         <v>45383</v>
@@ -8507,7 +8519,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>355</v>
       </c>
@@ -8524,7 +8536,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>357</v>
       </c>
@@ -8541,7 +8553,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>359</v>
       </c>
@@ -8558,7 +8570,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>361</v>
       </c>
@@ -8575,7 +8587,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>363</v>
       </c>
@@ -8592,7 +8604,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" hidden="1">
+    <row r="182" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>365</v>
       </c>
@@ -8609,7 +8621,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" hidden="1">
+    <row r="183" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>367</v>
       </c>
@@ -8626,7 +8638,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>369</v>
       </c>
@@ -8643,7 +8655,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>371</v>
       </c>
@@ -8660,7 +8672,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" hidden="1">
+    <row r="186" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>373</v>
       </c>
@@ -8677,7 +8689,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>375</v>
       </c>
@@ -8694,7 +8706,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>377</v>
       </c>
@@ -8711,7 +8723,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>379</v>
       </c>
@@ -8728,7 +8740,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>381</v>
       </c>
@@ -8745,7 +8757,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>383</v>
       </c>
@@ -8762,7 +8774,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" hidden="1">
+    <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>385</v>
       </c>
@@ -8779,7 +8791,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" hidden="1">
+    <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>387</v>
       </c>
@@ -8796,7 +8808,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" hidden="1">
+    <row r="194" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>389</v>
       </c>
@@ -8813,7 +8825,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>391</v>
       </c>
@@ -8821,7 +8833,7 @@
         <v>392</v>
       </c>
       <c r="C195" s="6">
-        <v>624.4499999999998</v>
+        <v>624.44999999999982</v>
       </c>
       <c r="D195" s="7">
         <v>45383</v>
@@ -8830,7 +8842,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>393</v>
       </c>
@@ -8847,7 +8859,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>395</v>
       </c>
@@ -8864,7 +8876,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" hidden="1">
+    <row r="198" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>397</v>
       </c>
@@ -8881,7 +8893,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" hidden="1">
+    <row r="199" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>399</v>
       </c>
@@ -8898,7 +8910,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" hidden="1">
+    <row r="200" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>401</v>
       </c>
@@ -8915,7 +8927,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" hidden="1">
+    <row r="201" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>403</v>
       </c>
@@ -8932,7 +8944,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" hidden="1">
+    <row r="202" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>405</v>
       </c>
@@ -8949,7 +8961,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" hidden="1">
+    <row r="203" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>407</v>
       </c>
@@ -8966,7 +8978,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>409</v>
       </c>
@@ -8983,7 +8995,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>411</v>
       </c>
@@ -9000,7 +9012,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+    <row r="206" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>413</v>
       </c>
@@ -9017,7 +9029,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" hidden="1">
+    <row r="207" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>415</v>
       </c>
@@ -9034,7 +9046,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" hidden="1">
+    <row r="208" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>417</v>
       </c>
@@ -9042,7 +9054,7 @@
         <v>418</v>
       </c>
       <c r="C208" s="6">
-        <v>770.9099999999999</v>
+        <v>770.90999999999985</v>
       </c>
       <c r="D208" s="7">
         <v>45352</v>
@@ -9051,7 +9063,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" hidden="1">
+    <row r="209" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>419</v>
       </c>
@@ -9068,7 +9080,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+    <row r="210" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>421</v>
       </c>
@@ -9076,7 +9088,7 @@
         <v>422</v>
       </c>
       <c r="C210" s="6">
-        <v>268.6</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="D210" s="7">
         <v>45383</v>
@@ -9085,7 +9097,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+    <row r="211" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>423</v>
       </c>
@@ -9093,7 +9105,7 @@
         <v>424</v>
       </c>
       <c r="C211" s="6">
-        <v>92.25000000000001</v>
+        <v>92.250000000000014</v>
       </c>
       <c r="D211" s="7">
         <v>45383</v>
@@ -9102,7 +9114,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+    <row r="212" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>425</v>
       </c>
@@ -9119,7 +9131,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" hidden="1">
+    <row r="213" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>427</v>
       </c>
@@ -9127,16 +9139,16 @@
         <v>428</v>
       </c>
       <c r="C213" s="6">
-        <v>933.9999999999999</v>
+        <v>933.99999999999989</v>
       </c>
       <c r="D213" s="7">
         <v>45352</v>
       </c>
       <c r="E213" s="7">
-        <v>45372.98039351852</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" hidden="1">
+        <v>45372.980393518519</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>429</v>
       </c>
@@ -9144,7 +9156,7 @@
         <v>430</v>
       </c>
       <c r="C214" s="6">
-        <v>854.8999999999997</v>
+        <v>854.89999999999975</v>
       </c>
       <c r="D214" s="7">
         <v>45352</v>
@@ -9153,7 +9165,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" hidden="1">
+    <row r="215" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>431</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>432</v>
       </c>
       <c r="C215" s="6">
-        <v>652.3199999999999</v>
+        <v>652.31999999999994</v>
       </c>
       <c r="D215" s="7">
         <v>45352</v>
@@ -9170,7 +9182,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" hidden="1">
+    <row r="216" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>433</v>
       </c>
@@ -9178,7 +9190,7 @@
         <v>434</v>
       </c>
       <c r="C216" s="6">
-        <v>815.3400000000001</v>
+        <v>815.34000000000015</v>
       </c>
       <c r="D216" s="7">
         <v>45352</v>
@@ -9187,7 +9199,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" hidden="1">
+    <row r="217" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>435</v>
       </c>
@@ -9204,7 +9216,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+    <row r="218" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>437</v>
       </c>
@@ -9212,7 +9224,7 @@
         <v>438</v>
       </c>
       <c r="C218" s="6">
-        <v>82.47000000000003</v>
+        <v>82.470000000000027</v>
       </c>
       <c r="D218" s="7">
         <v>45383</v>
@@ -9221,7 +9233,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+    <row r="219" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>439</v>
       </c>
@@ -9238,7 +9250,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" hidden="1">
+    <row r="220" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>441</v>
       </c>
@@ -9255,7 +9267,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" hidden="1">
+    <row r="221" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>443</v>
       </c>
@@ -9272,7 +9284,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+    <row r="222" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>445</v>
       </c>
@@ -9289,7 +9301,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+    <row r="223" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>447</v>
       </c>
@@ -9306,7 +9318,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" hidden="1">
+    <row r="224" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>449</v>
       </c>
@@ -9323,7 +9335,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" hidden="1">
+    <row r="225" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>451</v>
       </c>
@@ -9340,7 +9352,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+    <row r="226" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>453</v>
       </c>
@@ -9357,7 +9369,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" hidden="1">
+    <row r="227" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>455</v>
       </c>
@@ -9365,7 +9377,7 @@
         <v>456</v>
       </c>
       <c r="C227" s="6">
-        <v>93.23999999999998</v>
+        <v>93.239999999999981</v>
       </c>
       <c r="D227" s="7">
         <v>45352</v>
@@ -9374,7 +9386,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" hidden="1">
+    <row r="228" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>457</v>
       </c>
@@ -9391,7 +9403,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+    <row r="229" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>459</v>
       </c>
@@ -9408,7 +9420,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" hidden="1">
+    <row r="230" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>461</v>
       </c>
@@ -9425,7 +9437,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+    <row r="231" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>463</v>
       </c>
@@ -9442,7 +9454,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+    <row r="232" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>465</v>
       </c>
@@ -9459,7 +9471,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+    <row r="233" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>467</v>
       </c>
@@ -9476,7 +9488,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+    <row r="234" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>469</v>
       </c>
@@ -9484,7 +9496,7 @@
         <v>470</v>
       </c>
       <c r="C234" s="6">
-        <v>39.38</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="D234" s="7">
         <v>45383</v>
@@ -9493,7 +9505,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+    <row r="235" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>471</v>
       </c>
@@ -9510,7 +9522,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+    <row r="236" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>473</v>
       </c>
@@ -9527,7 +9539,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" hidden="1">
+    <row r="237" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>475</v>
       </c>
@@ -9544,7 +9556,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" hidden="1">
+    <row r="238" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>477</v>
       </c>
@@ -9561,7 +9573,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" hidden="1">
+    <row r="239" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>479</v>
       </c>
@@ -9578,7 +9590,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+    <row r="240" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>481</v>
       </c>
@@ -9586,7 +9598,7 @@
         <v>482</v>
       </c>
       <c r="C240" s="6">
-        <v>86.69999999999999</v>
+        <v>86.699999999999989</v>
       </c>
       <c r="D240" s="7">
         <v>45383</v>
@@ -9595,7 +9607,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" hidden="1">
+    <row r="241" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>483</v>
       </c>
@@ -9612,7 +9624,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+    <row r="242" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>485</v>
       </c>
@@ -9629,7 +9641,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+    <row r="243" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>487</v>
       </c>
@@ -9646,7 +9658,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+    <row r="244" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>489</v>
       </c>
@@ -9663,7 +9675,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" hidden="1">
+    <row r="245" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>491</v>
       </c>
@@ -9680,7 +9692,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+    <row r="246" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>493</v>
       </c>
@@ -9697,7 +9709,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+    <row r="247" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>495</v>
       </c>
@@ -9714,7 +9726,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+    <row r="248" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>497</v>
       </c>
@@ -9731,7 +9743,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" hidden="1">
+    <row r="249" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>499</v>
       </c>
@@ -9748,7 +9760,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" hidden="1">
+    <row r="250" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>501</v>
       </c>
@@ -9765,7 +9777,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" hidden="1">
+    <row r="251" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>503</v>
       </c>
@@ -9782,7 +9794,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" hidden="1">
+    <row r="252" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>505</v>
       </c>
@@ -9799,7 +9811,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" hidden="1">
+    <row r="253" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>507</v>
       </c>
@@ -9816,7 +9828,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+    <row r="254" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>509</v>
       </c>
@@ -9824,7 +9836,7 @@
         <v>510</v>
       </c>
       <c r="C254" s="6">
-        <v>68.24000000000001</v>
+        <v>68.240000000000009</v>
       </c>
       <c r="D254" s="7">
         <v>45383</v>
@@ -9833,7 +9845,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+    <row r="255" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>511</v>
       </c>
@@ -9841,7 +9853,7 @@
         <v>512</v>
       </c>
       <c r="C255" s="6">
-        <v>527.8000000000001</v>
+        <v>527.80000000000007</v>
       </c>
       <c r="D255" s="7">
         <v>45383</v>
@@ -9850,7 +9862,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" hidden="1">
+    <row r="256" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>513</v>
       </c>
@@ -9867,7 +9879,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+    <row r="257" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>515</v>
       </c>
@@ -9884,7 +9896,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+    <row r="258" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>517</v>
       </c>
@@ -9901,7 +9913,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+    <row r="259" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>519</v>
       </c>
@@ -9909,7 +9921,7 @@
         <v>520</v>
       </c>
       <c r="C259" s="6">
-        <v>290.28</v>
+        <v>290.27999999999997</v>
       </c>
       <c r="D259" s="7">
         <v>45383</v>
@@ -9918,7 +9930,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+    <row r="260" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>521</v>
       </c>
@@ -9935,7 +9947,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+    <row r="261" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>523</v>
       </c>
@@ -9952,7 +9964,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+    <row r="262" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
         <v>525</v>
       </c>
@@ -9969,7 +9981,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" hidden="1">
+    <row r="263" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
         <v>527</v>
       </c>
@@ -9977,7 +9989,7 @@
         <v>528</v>
       </c>
       <c r="C263" s="6">
-        <v>61.36000000000001</v>
+        <v>61.360000000000007</v>
       </c>
       <c r="D263" s="7">
         <v>45352</v>
@@ -9986,7 +9998,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" hidden="1">
+    <row r="264" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>529</v>
       </c>
@@ -10003,7 +10015,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" hidden="1">
+    <row r="265" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>531</v>
       </c>
@@ -10020,7 +10032,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" hidden="1">
+    <row r="266" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>533</v>
       </c>
@@ -10037,7 +10049,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+    <row r="267" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>535</v>
       </c>
@@ -10054,7 +10066,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" hidden="1">
+    <row r="268" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>537</v>
       </c>
@@ -10071,7 +10083,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" hidden="1">
+    <row r="269" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>539</v>
       </c>
@@ -10088,7 +10100,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" hidden="1">
+    <row r="270" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
         <v>541</v>
       </c>
@@ -10096,7 +10108,7 @@
         <v>542</v>
       </c>
       <c r="C270" s="6">
-        <v>92.55000000000001</v>
+        <v>92.550000000000011</v>
       </c>
       <c r="D270" s="7">
         <v>45352</v>
@@ -10105,7 +10117,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" hidden="1">
+    <row r="271" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>543</v>
       </c>
@@ -10122,7 +10134,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" hidden="1">
+    <row r="272" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>545</v>
       </c>
@@ -10139,7 +10151,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" hidden="1">
+    <row r="273" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>547</v>
       </c>
@@ -10156,7 +10168,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" hidden="1">
+    <row r="274" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>549</v>
       </c>
@@ -10173,7 +10185,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" hidden="1">
+    <row r="275" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>551</v>
       </c>
@@ -10190,7 +10202,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" hidden="1">
+    <row r="276" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>553</v>
       </c>
@@ -10207,7 +10219,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" hidden="1">
+    <row r="277" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>555</v>
       </c>
@@ -10224,7 +10236,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+    <row r="278" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>557</v>
       </c>
@@ -10241,7 +10253,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" hidden="1">
+    <row r="279" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>559</v>
       </c>
@@ -10258,7 +10270,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+    <row r="280" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>561</v>
       </c>
@@ -10266,7 +10278,7 @@
         <v>562</v>
       </c>
       <c r="C280" s="6">
-        <v>75.46999999999998</v>
+        <v>75.469999999999985</v>
       </c>
       <c r="D280" s="7">
         <v>45383</v>
@@ -10275,7 +10287,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" hidden="1">
+    <row r="281" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>563</v>
       </c>
@@ -10292,7 +10304,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" hidden="1">
+    <row r="282" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>565</v>
       </c>
@@ -10300,7 +10312,7 @@
         <v>566</v>
       </c>
       <c r="C282" s="6">
-        <v>70.24</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="D282" s="7">
         <v>45352</v>
@@ -10309,7 +10321,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+    <row r="283" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>567</v>
       </c>
@@ -10326,7 +10338,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" hidden="1">
+    <row r="284" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
         <v>569</v>
       </c>
@@ -10343,7 +10355,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" hidden="1">
+    <row r="285" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
         <v>571</v>
       </c>
@@ -10360,7 +10372,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" hidden="1">
+    <row r="286" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>573</v>
       </c>
@@ -10377,7 +10389,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" hidden="1">
+    <row r="287" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>575</v>
       </c>
@@ -10394,7 +10406,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+    <row r="288" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>577</v>
       </c>
@@ -10411,7 +10423,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+    <row r="289" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
         <v>579</v>
       </c>
@@ -10428,7 +10440,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+    <row r="290" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>581</v>
       </c>
@@ -10445,7 +10457,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+    <row r="291" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>583</v>
       </c>
@@ -10462,7 +10474,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+    <row r="292" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>585</v>
       </c>
@@ -10470,7 +10482,7 @@
         <v>586</v>
       </c>
       <c r="C292" s="6">
-        <v>40.13</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="D292" s="7">
         <v>45383</v>
@@ -10479,7 +10491,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+    <row r="293" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>587</v>
       </c>
@@ -10487,7 +10499,7 @@
         <v>588</v>
       </c>
       <c r="C293" s="6">
-        <v>670.9800000000001</v>
+        <v>670.98000000000013</v>
       </c>
       <c r="D293" s="7">
         <v>45383</v>
@@ -10496,7 +10508,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" hidden="1">
+    <row r="294" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>589</v>
       </c>
@@ -10513,7 +10525,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" hidden="1">
+    <row r="295" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>591</v>
       </c>
@@ -10530,7 +10542,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+    <row r="296" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>593</v>
       </c>
@@ -10538,7 +10550,7 @@
         <v>594</v>
       </c>
       <c r="C296" s="6">
-        <v>72.17999999999999</v>
+        <v>72.179999999999993</v>
       </c>
       <c r="D296" s="7">
         <v>45383</v>
@@ -10547,7 +10559,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+    <row r="297" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>595</v>
       </c>
@@ -10555,7 +10567,7 @@
         <v>596</v>
       </c>
       <c r="C297" s="6">
-        <v>758.0200000000002</v>
+        <v>758.02000000000021</v>
       </c>
       <c r="D297" s="7">
         <v>45383</v>
@@ -10564,7 +10576,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+    <row r="298" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>597</v>
       </c>
@@ -10581,7 +10593,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+    <row r="299" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>599</v>
       </c>
@@ -10598,7 +10610,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+    <row r="300" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>601</v>
       </c>
@@ -10615,7 +10627,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+    <row r="301" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>603</v>
       </c>
@@ -10623,7 +10635,7 @@
         <v>604</v>
       </c>
       <c r="C301" s="6">
-        <v>77.04</v>
+        <v>77.040000000000006</v>
       </c>
       <c r="D301" s="7">
         <v>45383</v>
@@ -10632,7 +10644,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" hidden="1">
+    <row r="302" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>605</v>
       </c>
@@ -10649,7 +10661,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" hidden="1">
+    <row r="303" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>607</v>
       </c>
@@ -10657,7 +10669,7 @@
         <v>608</v>
       </c>
       <c r="C303" s="6">
-        <v>268.28</v>
+        <v>268.27999999999997</v>
       </c>
       <c r="D303" s="7">
         <v>45352</v>
@@ -10666,7 +10678,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" hidden="1">
+    <row r="304" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>609</v>
       </c>
@@ -10683,7 +10695,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" hidden="1">
+    <row r="305" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>611</v>
       </c>
@@ -10700,7 +10712,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+    <row r="306" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>613</v>
       </c>
@@ -10717,7 +10729,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+    <row r="307" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>615</v>
       </c>
@@ -10734,7 +10746,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" hidden="1">
+    <row r="308" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>617</v>
       </c>
@@ -10751,7 +10763,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+    <row r="309" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>619</v>
       </c>
@@ -10768,7 +10780,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" hidden="1">
+    <row r="310" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>621</v>
       </c>
@@ -10785,7 +10797,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" hidden="1">
+    <row r="311" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>623</v>
       </c>
@@ -10802,7 +10814,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" hidden="1">
+    <row r="312" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>625</v>
       </c>
@@ -10819,7 +10831,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" hidden="1">
+    <row r="313" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>627</v>
       </c>
@@ -10836,7 +10848,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+    <row r="314" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>629</v>
       </c>
@@ -10853,7 +10865,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" hidden="1">
+    <row r="315" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>631</v>
       </c>
@@ -10861,7 +10873,7 @@
         <v>632</v>
       </c>
       <c r="C315" s="6">
-        <v>91.48000000000002</v>
+        <v>91.480000000000018</v>
       </c>
       <c r="D315" s="7">
         <v>45352</v>
@@ -10870,7 +10882,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" hidden="1">
+    <row r="316" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>633</v>
       </c>
@@ -10887,7 +10899,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" hidden="1">
+    <row r="317" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>635</v>
       </c>
@@ -10904,7 +10916,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" hidden="1">
+    <row r="318" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>637</v>
       </c>
@@ -10921,7 +10933,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" hidden="1">
+    <row r="319" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>639</v>
       </c>
@@ -10938,7 +10950,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" hidden="1">
+    <row r="320" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>641</v>
       </c>
@@ -10955,7 +10967,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+    <row r="321" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>643</v>
       </c>
@@ -10963,7 +10975,7 @@
         <v>644</v>
       </c>
       <c r="C321" s="6">
-        <v>587.9300000000001</v>
+        <v>587.93000000000006</v>
       </c>
       <c r="D321" s="7">
         <v>45383</v>
@@ -10972,7 +10984,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
+    <row r="322" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>645</v>
       </c>
@@ -10989,7 +11001,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
+    <row r="323" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>647</v>
       </c>
@@ -11006,7 +11018,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" hidden="1">
+    <row r="324" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>649</v>
       </c>
@@ -11020,10 +11032,10 @@
         <v>45352</v>
       </c>
       <c r="E324" s="7">
-        <v>45373.30769675926</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" hidden="1">
+        <v>45373.307696759257</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>651</v>
       </c>
@@ -11040,7 +11052,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
+    <row r="326" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>653</v>
       </c>
@@ -11048,7 +11060,7 @@
         <v>654</v>
       </c>
       <c r="C326" s="6">
-        <v>68.39999999999999</v>
+        <v>68.399999999999991</v>
       </c>
       <c r="D326" s="7">
         <v>45383</v>
@@ -11057,7 +11069,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" hidden="1">
+    <row r="327" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>655</v>
       </c>
@@ -11074,7 +11086,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
+    <row r="328" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>657</v>
       </c>
@@ -11091,7 +11103,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
+    <row r="329" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>659</v>
       </c>
@@ -11108,7 +11120,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" hidden="1">
+    <row r="330" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>661</v>
       </c>
@@ -11125,7 +11137,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
+    <row r="331" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>663</v>
       </c>
@@ -11142,7 +11154,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
+    <row r="332" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>665</v>
       </c>
@@ -11159,7 +11171,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
+    <row r="333" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>667</v>
       </c>
@@ -11176,7 +11188,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
+    <row r="334" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
         <v>669</v>
       </c>
@@ -11193,7 +11205,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
+    <row r="335" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>671</v>
       </c>
@@ -11210,7 +11222,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" hidden="1">
+    <row r="336" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>673</v>
       </c>
@@ -11227,7 +11239,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" hidden="1">
+    <row r="337" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>675</v>
       </c>
@@ -11244,7 +11256,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" hidden="1">
+    <row r="338" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
         <v>677</v>
       </c>
@@ -11261,7 +11273,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" hidden="1">
+    <row r="339" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
         <v>679</v>
       </c>
@@ -11278,7 +11290,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" hidden="1">
+    <row r="340" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>681</v>
       </c>
@@ -11295,7 +11307,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" hidden="1">
+    <row r="341" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>683</v>
       </c>
@@ -11303,7 +11315,7 @@
         <v>684</v>
       </c>
       <c r="C341" s="6">
-        <v>87.33000000000001</v>
+        <v>87.330000000000013</v>
       </c>
       <c r="D341" s="7">
         <v>45352</v>
@@ -11312,7 +11324,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" hidden="1">
+    <row r="342" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>685</v>
       </c>
@@ -11329,7 +11341,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" hidden="1">
+    <row r="343" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>687</v>
       </c>
@@ -11346,7 +11358,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
+    <row r="344" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
         <v>689</v>
       </c>
@@ -11363,7 +11375,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
+    <row r="345" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
         <v>691</v>
       </c>
@@ -11380,7 +11392,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" hidden="1">
+    <row r="346" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>693</v>
       </c>
@@ -11397,7 +11409,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" hidden="1">
+    <row r="347" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
         <v>695</v>
       </c>
@@ -11405,7 +11417,7 @@
         <v>696</v>
       </c>
       <c r="C347" s="6">
-        <v>75.33000000000001</v>
+        <v>75.330000000000013</v>
       </c>
       <c r="D347" s="7">
         <v>45352</v>
@@ -11414,7 +11426,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
+    <row r="348" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>697</v>
       </c>
@@ -11431,7 +11443,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" hidden="1">
+    <row r="349" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
         <v>699</v>
       </c>
@@ -11448,7 +11460,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" hidden="1">
+    <row r="350" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>701</v>
       </c>
@@ -11465,7 +11477,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" hidden="1">
+    <row r="351" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>703</v>
       </c>
@@ -11482,7 +11494,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" hidden="1">
+    <row r="352" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>705</v>
       </c>
@@ -11490,7 +11502,7 @@
         <v>706</v>
       </c>
       <c r="C352" s="6">
-        <v>80.07</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="D352" s="7">
         <v>45352</v>
@@ -11499,7 +11511,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" hidden="1">
+    <row r="353" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>707</v>
       </c>
@@ -11516,7 +11528,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" hidden="1">
+    <row r="354" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
         <v>709</v>
       </c>
@@ -11533,7 +11545,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
+    <row r="355" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
         <v>711</v>
       </c>
@@ -11550,7 +11562,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" hidden="1">
+    <row r="356" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>713</v>
       </c>
@@ -11564,10 +11576,10 @@
         <v>45352</v>
       </c>
       <c r="E356" s="7">
-        <v>45372.36363425926</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
+        <v>45372.363634259258</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>715</v>
       </c>
@@ -11584,7 +11596,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" hidden="1">
+    <row r="358" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>717</v>
       </c>
@@ -11601,7 +11613,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" hidden="1">
+    <row r="359" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>719</v>
       </c>
@@ -11618,7 +11630,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" hidden="1">
+    <row r="360" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
         <v>721</v>
       </c>
@@ -11635,7 +11647,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" hidden="1">
+    <row r="361" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>723</v>
       </c>
@@ -11652,7 +11664,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" hidden="1">
+    <row r="362" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>725</v>
       </c>
@@ -11660,7 +11672,7 @@
         <v>726</v>
       </c>
       <c r="C362" s="6">
-        <v>66.91999999999999</v>
+        <v>66.919999999999987</v>
       </c>
       <c r="D362" s="7">
         <v>45352</v>
@@ -11669,7 +11681,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
+    <row r="363" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>727</v>
       </c>
@@ -11686,7 +11698,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" hidden="1">
+    <row r="364" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
         <v>729</v>
       </c>
@@ -11700,10 +11712,10 @@
         <v>45352</v>
       </c>
       <c r="E364" s="7">
-        <v>45365.47368055556</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" hidden="1">
+        <v>45365.473680555559</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>731</v>
       </c>
@@ -11720,7 +11732,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
+    <row r="366" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>733</v>
       </c>
@@ -11737,7 +11749,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" hidden="1">
+    <row r="367" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
         <v>735</v>
       </c>
@@ -11745,7 +11757,7 @@
         <v>736</v>
       </c>
       <c r="C367" s="6">
-        <v>135.67</v>
+        <v>135.66999999999999</v>
       </c>
       <c r="D367" s="7">
         <v>45352</v>
@@ -11754,7 +11766,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75">
+    <row r="368" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>737</v>
       </c>
@@ -11771,7 +11783,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75">
+    <row r="369" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
         <v>739</v>
       </c>
@@ -11779,7 +11791,7 @@
         <v>740</v>
       </c>
       <c r="C369" s="6">
-        <v>858.4699999999997</v>
+        <v>858.46999999999969</v>
       </c>
       <c r="D369" s="7">
         <v>45383</v>
@@ -11788,7 +11800,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75">
+    <row r="370" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>741</v>
       </c>
@@ -11805,7 +11817,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75">
+    <row r="371" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>743</v>
       </c>
@@ -11813,7 +11825,7 @@
         <v>744</v>
       </c>
       <c r="C371" s="6">
-        <v>74.91999999999999</v>
+        <v>74.919999999999987</v>
       </c>
       <c r="D371" s="7">
         <v>45383</v>
@@ -11822,7 +11834,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75">
+    <row r="372" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>745</v>
       </c>
@@ -11839,7 +11851,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" hidden="1">
+    <row r="373" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>747</v>
       </c>
@@ -11856,7 +11868,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75">
+    <row r="374" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>749</v>
       </c>
@@ -11873,7 +11885,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" hidden="1">
+    <row r="375" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>751</v>
       </c>
@@ -11890,7 +11902,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75">
+    <row r="376" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>753</v>
       </c>
@@ -11898,7 +11910,7 @@
         <v>754</v>
       </c>
       <c r="C376" s="6">
-        <v>63.06000000000001</v>
+        <v>63.060000000000009</v>
       </c>
       <c r="D376" s="7">
         <v>45383</v>
@@ -11907,7 +11919,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75">
+    <row r="377" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
         <v>755</v>
       </c>
@@ -11924,7 +11936,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" hidden="1">
+    <row r="378" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>757</v>
       </c>
@@ -11941,7 +11953,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" hidden="1">
+    <row r="379" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
         <v>759</v>
       </c>
@@ -11958,7 +11970,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
+    <row r="380" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>761</v>
       </c>
@@ -11975,7 +11987,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" hidden="1">
+    <row r="381" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>763</v>
       </c>
@@ -11992,7 +12004,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" hidden="1">
+    <row r="382" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
         <v>765</v>
       </c>
@@ -12009,7 +12021,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" hidden="1">
+    <row r="383" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>767</v>
       </c>
@@ -12026,7 +12038,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" hidden="1">
+    <row r="384" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>769</v>
       </c>
@@ -12043,7 +12055,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" hidden="1">
+    <row r="385" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>771</v>
       </c>
@@ -12060,7 +12072,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
+    <row r="386" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>773</v>
       </c>
@@ -12077,7 +12089,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" hidden="1">
+    <row r="387" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>775</v>
       </c>
@@ -12085,7 +12097,7 @@
         <v>776</v>
       </c>
       <c r="C387" s="6">
-        <v>750.9000000000001</v>
+        <v>750.90000000000009</v>
       </c>
       <c r="D387" s="7">
         <v>45352</v>
@@ -12094,7 +12106,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" hidden="1">
+    <row r="388" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>777</v>
       </c>
@@ -12111,7 +12123,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" hidden="1">
+    <row r="389" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>779</v>
       </c>
@@ -12128,7 +12140,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" hidden="1">
+    <row r="390" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>781</v>
       </c>
@@ -12145,7 +12157,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" hidden="1">
+    <row r="391" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
         <v>783</v>
       </c>
@@ -12162,7 +12174,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
+    <row r="392" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>785</v>
       </c>
@@ -12179,7 +12191,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" hidden="1">
+    <row r="393" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
         <v>787</v>
       </c>
@@ -12196,7 +12208,7 @@
         <v>45368.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" hidden="1">
+    <row r="394" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>789</v>
       </c>
@@ -12213,7 +12225,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" hidden="1">
+    <row r="395" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
         <v>791</v>
       </c>
@@ -12230,7 +12242,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" hidden="1">
+    <row r="396" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>793</v>
       </c>
@@ -12247,7 +12259,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
+    <row r="397" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>795</v>
       </c>
@@ -12264,7 +12276,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
+    <row r="398" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>797</v>
       </c>
@@ -12281,7 +12293,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
+    <row r="399" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
         <v>799</v>
       </c>
@@ -12298,7 +12310,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" hidden="1">
+    <row r="400" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>801</v>
       </c>
@@ -12315,7 +12327,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" hidden="1">
+    <row r="401" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>803</v>
       </c>
@@ -12332,7 +12344,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" hidden="1">
+    <row r="402" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
         <v>805</v>
       </c>
@@ -12349,7 +12361,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" hidden="1">
+    <row r="403" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
         <v>807</v>
       </c>
@@ -12366,7 +12378,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" hidden="1">
+    <row r="404" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
         <v>809</v>
       </c>
@@ -12374,7 +12386,7 @@
         <v>810</v>
       </c>
       <c r="C404" s="6">
-        <v>91.83000000000001</v>
+        <v>91.830000000000013</v>
       </c>
       <c r="D404" s="7">
         <v>45352</v>
@@ -12383,7 +12395,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" hidden="1">
+    <row r="405" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
         <v>811</v>
       </c>
@@ -12400,7 +12412,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75">
+    <row r="406" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
         <v>813</v>
       </c>
@@ -12417,7 +12429,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" hidden="1">
+    <row r="407" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>815</v>
       </c>
@@ -12425,7 +12437,7 @@
         <v>816</v>
       </c>
       <c r="C407" s="6">
-        <v>130.2</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="D407" s="7">
         <v>45352</v>
@@ -12434,7 +12446,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" hidden="1">
+    <row r="408" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
         <v>817</v>
       </c>
@@ -12442,7 +12454,7 @@
         <v>818</v>
       </c>
       <c r="C408" s="6">
-        <v>80.24999999999999</v>
+        <v>80.249999999999986</v>
       </c>
       <c r="D408" s="7">
         <v>45352</v>
@@ -12451,7 +12463,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" hidden="1">
+    <row r="409" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>819</v>
       </c>
@@ -12468,7 +12480,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75">
+    <row r="410" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>821</v>
       </c>
@@ -12485,7 +12497,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" hidden="1">
+    <row r="411" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>823</v>
       </c>
@@ -12502,7 +12514,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75">
+    <row r="412" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
         <v>825</v>
       </c>
@@ -12519,7 +12531,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" hidden="1">
+    <row r="413" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
         <v>827</v>
       </c>
@@ -12536,7 +12548,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" hidden="1">
+    <row r="414" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>829</v>
       </c>
@@ -12553,7 +12565,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" hidden="1">
+    <row r="415" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>831</v>
       </c>
@@ -12561,7 +12573,7 @@
         <v>832</v>
       </c>
       <c r="C415" s="6">
-        <v>580.3699999999999</v>
+        <v>580.36999999999989</v>
       </c>
       <c r="D415" s="7">
         <v>45352</v>
@@ -12570,7 +12582,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" hidden="1">
+    <row r="416" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
         <v>833</v>
       </c>
@@ -12587,7 +12599,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" hidden="1">
+    <row r="417" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
         <v>835</v>
       </c>
@@ -12604,7 +12616,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75">
+    <row r="418" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
         <v>837</v>
       </c>
@@ -12612,7 +12624,7 @@
         <v>838</v>
       </c>
       <c r="C418" s="6">
-        <v>681.1800000000001</v>
+        <v>681.18000000000006</v>
       </c>
       <c r="D418" s="7">
         <v>45383</v>
@@ -12621,7 +12633,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75">
+    <row r="419" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
         <v>839</v>
       </c>
@@ -12638,7 +12650,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" hidden="1">
+    <row r="420" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
         <v>841</v>
       </c>
@@ -12655,7 +12667,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" hidden="1">
+    <row r="421" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
         <v>843</v>
       </c>
@@ -12672,7 +12684,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" hidden="1">
+    <row r="422" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>845</v>
       </c>
@@ -12689,7 +12701,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" hidden="1">
+    <row r="423" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
         <v>847</v>
       </c>
@@ -12697,7 +12709,7 @@
         <v>848</v>
       </c>
       <c r="C423" s="6">
-        <v>145.8</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="D423" s="7">
         <v>45352</v>
@@ -12706,7 +12718,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" hidden="1">
+    <row r="424" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>849</v>
       </c>
@@ -12723,7 +12735,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" hidden="1">
+    <row r="425" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>851</v>
       </c>
@@ -12731,7 +12743,7 @@
         <v>852</v>
       </c>
       <c r="C425" s="6">
-        <v>282.71</v>
+        <v>282.70999999999998</v>
       </c>
       <c r="D425" s="7">
         <v>45352</v>
@@ -12740,7 +12752,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" hidden="1">
+    <row r="426" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>853</v>
       </c>
@@ -12757,7 +12769,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" hidden="1">
+    <row r="427" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
         <v>855</v>
       </c>
@@ -12774,7 +12786,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" hidden="1">
+    <row r="428" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>857</v>
       </c>
@@ -12791,7 +12803,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75">
+    <row r="429" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
         <v>859</v>
       </c>
@@ -12808,7 +12820,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" hidden="1">
+    <row r="430" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>861</v>
       </c>
@@ -12825,7 +12837,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" hidden="1">
+    <row r="431" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
         <v>863</v>
       </c>
@@ -12842,7 +12854,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75">
+    <row r="432" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
         <v>865</v>
       </c>
@@ -12859,7 +12871,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75">
+    <row r="433" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
         <v>867</v>
       </c>
@@ -12867,7 +12879,7 @@
         <v>868</v>
       </c>
       <c r="C433" s="6">
-        <v>58.42999999999999</v>
+        <v>58.429999999999993</v>
       </c>
       <c r="D433" s="7">
         <v>45383</v>
@@ -12876,7 +12888,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75">
+    <row r="434" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
         <v>869</v>
       </c>
@@ -12893,7 +12905,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75">
+    <row r="435" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
         <v>871</v>
       </c>
@@ -12910,7 +12922,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75">
+    <row r="436" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>873</v>
       </c>
@@ -12927,7 +12939,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75">
+    <row r="437" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
         <v>875</v>
       </c>
@@ -12944,7 +12956,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" hidden="1">
+    <row r="438" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>877</v>
       </c>
@@ -12961,7 +12973,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75">
+    <row r="439" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>879</v>
       </c>
@@ -12978,7 +12990,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" hidden="1">
+    <row r="440" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>881</v>
       </c>
@@ -12995,7 +13007,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" hidden="1">
+    <row r="441" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
         <v>883</v>
       </c>
@@ -13012,7 +13024,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" hidden="1">
+    <row r="442" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
         <v>885</v>
       </c>
@@ -13020,7 +13032,7 @@
         <v>886</v>
       </c>
       <c r="C442" s="6">
-        <v>74.85</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="D442" s="7">
         <v>45352</v>
@@ -13029,7 +13041,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" hidden="1">
+    <row r="443" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
         <v>887</v>
       </c>
@@ -13046,7 +13058,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" hidden="1">
+    <row r="444" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
         <v>889</v>
       </c>
@@ -13054,7 +13066,7 @@
         <v>890</v>
       </c>
       <c r="C444" s="6">
-        <v>39.34000000000001</v>
+        <v>39.340000000000011</v>
       </c>
       <c r="D444" s="7">
         <v>45352</v>
@@ -13063,7 +13075,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" hidden="1">
+    <row r="445" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>891</v>
       </c>
@@ -13080,7 +13092,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" hidden="1">
+    <row r="446" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
         <v>893</v>
       </c>
@@ -13097,7 +13109,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75">
+    <row r="447" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
         <v>895</v>
       </c>
@@ -13114,7 +13126,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" hidden="1">
+    <row r="448" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>897</v>
       </c>
@@ -13131,7 +13143,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" hidden="1">
+    <row r="449" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>899</v>
       </c>
@@ -13139,7 +13151,7 @@
         <v>900</v>
       </c>
       <c r="C449" s="6">
-        <v>92.05999999999999</v>
+        <v>92.059999999999988</v>
       </c>
       <c r="D449" s="7">
         <v>45352</v>
@@ -13148,7 +13160,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" hidden="1">
+    <row r="450" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
         <v>901</v>
       </c>
@@ -13165,7 +13177,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" hidden="1">
+    <row r="451" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>903</v>
       </c>
@@ -13182,7 +13194,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" hidden="1">
+    <row r="452" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
         <v>905</v>
       </c>
@@ -13199,7 +13211,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" hidden="1">
+    <row r="453" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>907</v>
       </c>
@@ -13216,7 +13228,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75">
+    <row r="454" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
         <v>909</v>
       </c>
@@ -13233,7 +13245,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75">
+    <row r="455" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
         <v>911</v>
       </c>
@@ -13250,7 +13262,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" hidden="1">
+    <row r="456" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
         <v>913</v>
       </c>
@@ -13267,7 +13279,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" hidden="1">
+    <row r="457" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
         <v>915</v>
       </c>
@@ -13284,7 +13296,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" hidden="1">
+    <row r="458" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
         <v>917</v>
       </c>
@@ -13301,7 +13313,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" hidden="1">
+    <row r="459" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
         <v>919</v>
       </c>
@@ -13318,7 +13330,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75">
+    <row r="460" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>921</v>
       </c>
@@ -13326,7 +13338,7 @@
         <v>922</v>
       </c>
       <c r="C460" s="6">
-        <v>149.23</v>
+        <v>149.22999999999999</v>
       </c>
       <c r="D460" s="7">
         <v>45383</v>
@@ -13335,7 +13347,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75">
+    <row r="461" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
         <v>923</v>
       </c>
@@ -13352,7 +13364,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" hidden="1">
+    <row r="462" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
         <v>925</v>
       </c>
@@ -13360,7 +13372,7 @@
         <v>926</v>
       </c>
       <c r="C462" s="6">
-        <v>64.21</v>
+        <v>64.209999999999994</v>
       </c>
       <c r="D462" s="7">
         <v>45352</v>
@@ -13369,7 +13381,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75">
+    <row r="463" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
         <v>927</v>
       </c>
@@ -13386,7 +13398,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" hidden="1">
+    <row r="464" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>929</v>
       </c>
@@ -13403,7 +13415,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75">
+    <row r="465" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>931</v>
       </c>
@@ -13420,7 +13432,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" hidden="1">
+    <row r="466" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>933</v>
       </c>
@@ -13437,7 +13449,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" hidden="1">
+    <row r="467" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>935</v>
       </c>
@@ -13445,7 +13457,7 @@
         <v>936</v>
       </c>
       <c r="C467" s="6">
-        <v>844.8800000000002</v>
+        <v>844.88000000000022</v>
       </c>
       <c r="D467" s="7">
         <v>45352</v>
@@ -13454,7 +13466,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" hidden="1">
+    <row r="468" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
         <v>937</v>
       </c>
@@ -13471,7 +13483,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75">
+    <row r="469" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
         <v>939</v>
       </c>
@@ -13488,7 +13500,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75">
+    <row r="470" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
         <v>941</v>
       </c>
@@ -13505,7 +13517,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75">
+    <row r="471" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
         <v>943</v>
       </c>
@@ -13522,7 +13534,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75">
+    <row r="472" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
         <v>945</v>
       </c>
@@ -13539,7 +13551,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" hidden="1">
+    <row r="473" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
         <v>947</v>
       </c>
@@ -13556,7 +13568,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75">
+    <row r="474" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
         <v>949</v>
       </c>
@@ -13573,7 +13585,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" hidden="1">
+    <row r="475" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
         <v>951</v>
       </c>
@@ -13581,7 +13593,7 @@
         <v>952</v>
       </c>
       <c r="C475" s="6">
-        <v>63.24000000000001</v>
+        <v>63.240000000000009</v>
       </c>
       <c r="D475" s="7">
         <v>45352</v>
@@ -13590,7 +13602,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" hidden="1">
+    <row r="476" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
         <v>953</v>
       </c>
@@ -13607,7 +13619,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" hidden="1">
+    <row r="477" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
         <v>955</v>
       </c>
@@ -13624,7 +13636,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75">
+    <row r="478" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
         <v>957</v>
       </c>
@@ -13641,7 +13653,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" hidden="1">
+    <row r="479" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
         <v>959</v>
       </c>
@@ -13658,7 +13670,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" hidden="1">
+    <row r="480" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>961</v>
       </c>
@@ -13675,7 +13687,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" hidden="1">
+    <row r="481" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
         <v>963</v>
       </c>
@@ -13692,7 +13704,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75">
+    <row r="482" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>965</v>
       </c>
@@ -13700,7 +13712,7 @@
         <v>966</v>
       </c>
       <c r="C482" s="6">
-        <v>75.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D482" s="7">
         <v>45383</v>
@@ -13709,7 +13721,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75">
+    <row r="483" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
         <v>967</v>
       </c>
@@ -13726,7 +13738,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75">
+    <row r="484" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>969</v>
       </c>
@@ -13743,7 +13755,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75">
+    <row r="485" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
         <v>971</v>
       </c>
@@ -13760,7 +13772,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75">
+    <row r="486" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
         <v>973</v>
       </c>
@@ -13777,7 +13789,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75">
+    <row r="487" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
         <v>975</v>
       </c>
@@ -13794,7 +13806,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" hidden="1">
+    <row r="488" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
         <v>977</v>
       </c>
@@ -13811,7 +13823,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75">
+    <row r="489" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
         <v>979</v>
       </c>
@@ -13828,7 +13840,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75">
+    <row r="490" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
         <v>981</v>
       </c>
@@ -13845,7 +13857,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" hidden="1">
+    <row r="491" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
         <v>983</v>
       </c>
@@ -13853,7 +13865,7 @@
         <v>984</v>
       </c>
       <c r="C491" s="6">
-        <v>860.2000000000002</v>
+        <v>860.20000000000016</v>
       </c>
       <c r="D491" s="7">
         <v>45352</v>
@@ -13862,7 +13874,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75">
+    <row r="492" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
         <v>985</v>
       </c>
@@ -13879,7 +13891,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75">
+    <row r="493" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
         <v>987</v>
       </c>
@@ -13887,7 +13899,7 @@
         <v>988</v>
       </c>
       <c r="C493" s="6">
-        <v>776.3100000000002</v>
+        <v>776.31000000000017</v>
       </c>
       <c r="D493" s="7">
         <v>45383</v>
@@ -13896,7 +13908,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" hidden="1">
+    <row r="494" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
         <v>989</v>
       </c>
@@ -13913,7 +13925,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" hidden="1">
+    <row r="495" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
         <v>991</v>
       </c>
@@ -13930,7 +13942,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" hidden="1">
+    <row r="496" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
         <v>993</v>
       </c>
@@ -13947,7 +13959,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" hidden="1">
+    <row r="497" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
         <v>995</v>
       </c>
@@ -13964,7 +13976,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" hidden="1">
+    <row r="498" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
         <v>997</v>
       </c>
@@ -13972,7 +13984,7 @@
         <v>998</v>
       </c>
       <c r="C498" s="6">
-        <v>69.68</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="D498" s="7">
         <v>45352</v>
@@ -13981,7 +13993,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" hidden="1">
+    <row r="499" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
         <v>999</v>
       </c>
@@ -13998,7 +14010,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" hidden="1">
+    <row r="500" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
         <v>1001</v>
       </c>
@@ -14015,7 +14027,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" hidden="1">
+    <row r="501" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
         <v>1003</v>
       </c>
@@ -14032,7 +14044,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75">
+    <row r="502" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
         <v>1005</v>
       </c>
@@ -14049,7 +14061,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" hidden="1">
+    <row r="503" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
         <v>1007</v>
       </c>
@@ -14066,7 +14078,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" hidden="1">
+    <row r="504" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
         <v>1009</v>
       </c>
@@ -14083,7 +14095,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75">
+    <row r="505" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
         <v>1011</v>
       </c>
@@ -14091,7 +14103,7 @@
         <v>1012</v>
       </c>
       <c r="C505" s="6">
-        <v>71.96000000000001</v>
+        <v>71.960000000000008</v>
       </c>
       <c r="D505" s="7">
         <v>45383</v>
@@ -14100,7 +14112,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75">
+    <row r="506" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
         <v>1013</v>
       </c>
@@ -14117,7 +14129,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" hidden="1">
+    <row r="507" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
         <v>1015</v>
       </c>
@@ -14134,7 +14146,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75">
+    <row r="508" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
         <v>1017</v>
       </c>
@@ -14151,7 +14163,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" hidden="1">
+    <row r="509" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
         <v>1019</v>
       </c>
@@ -14168,7 +14180,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" hidden="1">
+    <row r="510" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
         <v>1021</v>
       </c>
@@ -14185,7 +14197,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" hidden="1">
+    <row r="511" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
         <v>1023</v>
       </c>
@@ -14202,7 +14214,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75">
+    <row r="512" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
         <v>1025</v>
       </c>
@@ -14219,7 +14231,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" hidden="1">
+    <row r="513" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
         <v>1027</v>
       </c>
@@ -14236,7 +14248,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" hidden="1">
+    <row r="514" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
         <v>1029</v>
       </c>
@@ -14253,7 +14265,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75">
+    <row r="515" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
         <v>1031</v>
       </c>
@@ -14270,7 +14282,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" hidden="1">
+    <row r="516" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
         <v>1033</v>
       </c>
@@ -14287,7 +14299,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75">
+    <row r="517" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4" t="s">
         <v>1035</v>
       </c>
@@ -14304,7 +14316,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" hidden="1">
+    <row r="518" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
         <v>1037</v>
       </c>
@@ -14321,7 +14333,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75">
+    <row r="519" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
         <v>1039</v>
       </c>
@@ -14338,7 +14350,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" hidden="1">
+    <row r="520" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4" t="s">
         <v>1041</v>
       </c>
@@ -14346,7 +14358,7 @@
         <v>1042</v>
       </c>
       <c r="C520" s="6">
-        <v>33.98</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="D520" s="7">
         <v>45352</v>
@@ -14355,7 +14367,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" hidden="1">
+    <row r="521" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
         <v>1043</v>
       </c>
@@ -14372,7 +14384,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" hidden="1">
+    <row r="522" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
         <v>1045</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" hidden="1">
+    <row r="523" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
         <v>1047</v>
       </c>
@@ -14406,7 +14418,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75">
+    <row r="524" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
         <v>1049</v>
       </c>
@@ -14423,7 +14435,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" hidden="1">
+    <row r="525" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
         <v>1051</v>
       </c>
@@ -14440,7 +14452,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75">
+    <row r="526" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
         <v>1053</v>
       </c>
@@ -14457,7 +14469,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75">
+    <row r="527" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
         <v>1055</v>
       </c>
@@ -14465,7 +14477,7 @@
         <v>1056</v>
       </c>
       <c r="C527" s="6">
-        <v>128.36</v>
+        <v>128.36000000000001</v>
       </c>
       <c r="D527" s="7">
         <v>45383</v>
@@ -14474,7 +14486,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" hidden="1">
+    <row r="528" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
         <v>1057</v>
       </c>
@@ -14491,7 +14503,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" hidden="1">
+    <row r="529" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4" t="s">
         <v>1059</v>
       </c>
@@ -14508,7 +14520,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75">
+    <row r="530" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
         <v>1061</v>
       </c>
@@ -14525,7 +14537,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75" hidden="1">
+    <row r="531" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4" t="s">
         <v>1063</v>
       </c>
@@ -14542,7 +14554,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" hidden="1">
+    <row r="532" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4" t="s">
         <v>1065</v>
       </c>
@@ -14550,7 +14562,7 @@
         <v>1066</v>
       </c>
       <c r="C532" s="6">
-        <v>33.55</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="D532" s="7">
         <v>45352</v>
@@ -14559,7 +14571,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75">
+    <row r="533" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4" t="s">
         <v>1067</v>
       </c>
@@ -14576,7 +14588,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75">
+    <row r="534" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4" t="s">
         <v>1069</v>
       </c>
@@ -14593,7 +14605,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75">
+    <row r="535" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4" t="s">
         <v>1071</v>
       </c>
@@ -14601,7 +14613,7 @@
         <v>1072</v>
       </c>
       <c r="C535" s="6">
-        <v>77.92000000000002</v>
+        <v>77.920000000000016</v>
       </c>
       <c r="D535" s="7">
         <v>45383</v>
@@ -14610,7 +14622,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" hidden="1">
+    <row r="536" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4" t="s">
         <v>1073</v>
       </c>
@@ -14627,7 +14639,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75">
+    <row r="537" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4" t="s">
         <v>1075</v>
       </c>
@@ -14644,7 +14656,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" hidden="1">
+    <row r="538" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
         <v>1077</v>
       </c>
@@ -14652,7 +14664,7 @@
         <v>1078</v>
       </c>
       <c r="C538" s="6">
-        <v>131.36</v>
+        <v>131.36000000000001</v>
       </c>
       <c r="D538" s="7">
         <v>45352</v>
@@ -14661,7 +14673,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" hidden="1">
+    <row r="539" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4" t="s">
         <v>1079</v>
       </c>
@@ -14669,7 +14681,7 @@
         <v>1080</v>
       </c>
       <c r="C539" s="6">
-        <v>278.35</v>
+        <v>278.35000000000002</v>
       </c>
       <c r="D539" s="7">
         <v>45352</v>
@@ -14678,7 +14690,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" hidden="1">
+    <row r="540" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4" t="s">
         <v>1081</v>
       </c>
@@ -14695,7 +14707,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" hidden="1">
+    <row r="541" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
         <v>1083</v>
       </c>
@@ -14712,7 +14724,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75">
+    <row r="542" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
         <v>1085</v>
       </c>
@@ -14729,7 +14741,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75">
+    <row r="543" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4" t="s">
         <v>1087</v>
       </c>
@@ -14737,7 +14749,7 @@
         <v>1088</v>
       </c>
       <c r="C543" s="6">
-        <v>71.32</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="D543" s="7">
         <v>45383</v>
@@ -14746,7 +14758,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75">
+    <row r="544" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
         <v>1089</v>
       </c>
@@ -14763,7 +14775,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" hidden="1">
+    <row r="545" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
         <v>1091</v>
       </c>
@@ -14780,7 +14792,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75">
+    <row r="546" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
         <v>1093</v>
       </c>
@@ -14797,7 +14809,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" hidden="1">
+    <row r="547" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
         <v>1095</v>
       </c>
@@ -14814,7 +14826,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" hidden="1">
+    <row r="548" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
         <v>1097</v>
       </c>
@@ -14831,7 +14843,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" hidden="1">
+    <row r="549" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
         <v>1099</v>
       </c>
@@ -14848,7 +14860,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" hidden="1">
+    <row r="550" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
         <v>1101</v>
       </c>
@@ -14856,7 +14868,7 @@
         <v>1102</v>
       </c>
       <c r="C550" s="6">
-        <v>77.46000000000001</v>
+        <v>77.460000000000008</v>
       </c>
       <c r="D550" s="7">
         <v>45352</v>
@@ -14865,7 +14877,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" hidden="1">
+    <row r="551" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4" t="s">
         <v>1103</v>
       </c>
@@ -14882,7 +14894,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" hidden="1">
+    <row r="552" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
         <v>1105</v>
       </c>
@@ -14899,7 +14911,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" hidden="1">
+    <row r="553" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
         <v>1107</v>
       </c>
@@ -14916,7 +14928,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" hidden="1">
+    <row r="554" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
         <v>1109</v>
       </c>
@@ -14933,7 +14945,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75">
+    <row r="555" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4" t="s">
         <v>1111</v>
       </c>
@@ -14950,7 +14962,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75">
+    <row r="556" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
         <v>1113</v>
       </c>
@@ -14967,7 +14979,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75">
+    <row r="557" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4" t="s">
         <v>1115</v>
       </c>
@@ -14975,7 +14987,7 @@
         <v>1116</v>
       </c>
       <c r="C557" s="6">
-        <v>322.9</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="D557" s="7">
         <v>45383</v>
@@ -14984,7 +14996,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75">
+    <row r="558" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
         <v>1117</v>
       </c>
@@ -15001,7 +15013,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75">
+    <row r="559" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4" t="s">
         <v>1119</v>
       </c>
@@ -15018,7 +15030,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75">
+    <row r="560" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
         <v>1121</v>
       </c>
@@ -15026,7 +15038,7 @@
         <v>1122</v>
       </c>
       <c r="C560" s="6">
-        <v>143.48</v>
+        <v>143.47999999999999</v>
       </c>
       <c r="D560" s="7">
         <v>45383</v>
@@ -15035,7 +15047,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75">
+    <row r="561" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4" t="s">
         <v>1123</v>
       </c>
@@ -15052,7 +15064,7 @@
         <v>45389</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" hidden="1">
+    <row r="562" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4" t="s">
         <v>1125</v>
       </c>
@@ -15069,7 +15081,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75">
+    <row r="563" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4" t="s">
         <v>1127</v>
       </c>
@@ -15086,7 +15098,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" hidden="1">
+    <row r="564" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
         <v>1129</v>
       </c>
@@ -15103,7 +15115,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" hidden="1">
+    <row r="565" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4" t="s">
         <v>1131</v>
       </c>
@@ -15120,7 +15132,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75">
+    <row r="566" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
         <v>1133</v>
       </c>
@@ -15137,7 +15149,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75">
+    <row r="567" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
         <v>1135</v>
       </c>
@@ -15154,7 +15166,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" hidden="1">
+    <row r="568" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
         <v>1137</v>
       </c>
@@ -15171,7 +15183,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" hidden="1">
+    <row r="569" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4" t="s">
         <v>1139</v>
       </c>
@@ -15188,7 +15200,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75">
+    <row r="570" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
         <v>1141</v>
       </c>
@@ -15205,7 +15217,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" hidden="1">
+    <row r="571" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
         <v>1143</v>
       </c>
@@ -15222,7 +15234,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75">
+    <row r="572" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
         <v>1145</v>
       </c>
@@ -15239,7 +15251,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" hidden="1">
+    <row r="573" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
         <v>1147</v>
       </c>
@@ -15256,7 +15268,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" hidden="1">
+    <row r="574" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
         <v>1149</v>
       </c>
@@ -15273,7 +15285,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" hidden="1">
+    <row r="575" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4" t="s">
         <v>1151</v>
       </c>
@@ -15290,7 +15302,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" hidden="1">
+    <row r="576" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4" t="s">
         <v>1153</v>
       </c>
@@ -15307,7 +15319,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75">
+    <row r="577" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4" t="s">
         <v>1155</v>
       </c>
@@ -15324,7 +15336,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75">
+    <row r="578" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
         <v>1157</v>
       </c>
@@ -15341,7 +15353,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" hidden="1">
+    <row r="579" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4" t="s">
         <v>1159</v>
       </c>
@@ -15358,7 +15370,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" hidden="1">
+    <row r="580" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4" t="s">
         <v>1161</v>
       </c>
@@ -15375,7 +15387,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" hidden="1">
+    <row r="581" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4" t="s">
         <v>1163</v>
       </c>
@@ -15392,7 +15404,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75">
+    <row r="582" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4" t="s">
         <v>1165</v>
       </c>
@@ -15409,7 +15421,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75">
+    <row r="583" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4" t="s">
         <v>1167</v>
       </c>
@@ -15426,7 +15438,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" hidden="1">
+    <row r="584" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
         <v>1169</v>
       </c>
@@ -15443,7 +15455,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" hidden="1">
+    <row r="585" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4" t="s">
         <v>1171</v>
       </c>
@@ -15460,7 +15472,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" hidden="1">
+    <row r="586" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
         <v>1173</v>
       </c>
@@ -15477,7 +15489,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75">
+    <row r="587" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
         <v>1175</v>
       </c>
@@ -15494,7 +15506,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" hidden="1">
+    <row r="588" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
         <v>1177</v>
       </c>
@@ -15511,7 +15523,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75">
+    <row r="589" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4" t="s">
         <v>1179</v>
       </c>
@@ -15519,7 +15531,7 @@
         <v>1180</v>
       </c>
       <c r="C589" s="6">
-        <v>71.44999999999999</v>
+        <v>71.449999999999989</v>
       </c>
       <c r="D589" s="7">
         <v>45383</v>
@@ -15528,7 +15540,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" hidden="1">
+    <row r="590" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4" t="s">
         <v>1181</v>
       </c>
@@ -15545,7 +15557,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" hidden="1">
+    <row r="591" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4" t="s">
         <v>1183</v>
       </c>
@@ -15553,7 +15565,7 @@
         <v>1184</v>
       </c>
       <c r="C591" s="6">
-        <v>298.54</v>
+        <v>298.54000000000002</v>
       </c>
       <c r="D591" s="7">
         <v>45352</v>
@@ -15562,7 +15574,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" hidden="1">
+    <row r="592" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
         <v>1185</v>
       </c>
@@ -15579,7 +15591,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" hidden="1">
+    <row r="593" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4" t="s">
         <v>1187</v>
       </c>
@@ -15596,7 +15608,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75">
+    <row r="594" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
         <v>1189</v>
       </c>
@@ -15613,7 +15625,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="18.75">
+    <row r="595" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4" t="s">
         <v>1191</v>
       </c>
@@ -15630,7 +15642,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="18.75">
+    <row r="596" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
         <v>1193</v>
       </c>
@@ -15647,7 +15659,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="18.75" hidden="1">
+    <row r="597" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4" t="s">
         <v>1195</v>
       </c>
@@ -15664,7 +15676,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="18.75">
+    <row r="598" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
         <v>1197</v>
       </c>
@@ -15681,7 +15693,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="18.75">
+    <row r="599" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
         <v>1199</v>
       </c>
@@ -15698,7 +15710,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="18.75">
+    <row r="600" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
         <v>1201</v>
       </c>
@@ -15715,7 +15727,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="18.75" hidden="1">
+    <row r="601" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
         <v>1203</v>
       </c>
@@ -15732,7 +15744,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="18.75">
+    <row r="602" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4" t="s">
         <v>1205</v>
       </c>
@@ -15749,7 +15761,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="18.75" hidden="1">
+    <row r="603" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
         <v>1207</v>
       </c>
@@ -15757,7 +15769,7 @@
         <v>1208</v>
       </c>
       <c r="C603" s="6">
-        <v>80.78999999999999</v>
+        <v>80.789999999999992</v>
       </c>
       <c r="D603" s="7">
         <v>45352</v>
@@ -15766,7 +15778,7 @@
         <v>45371.555555555555</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="18.75" hidden="1">
+    <row r="604" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
         <v>1209</v>
       </c>
@@ -15783,7 +15795,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="18.75" hidden="1">
+    <row r="605" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4" t="s">
         <v>1211</v>
       </c>
@@ -15800,7 +15812,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="18.75" hidden="1">
+    <row r="606" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
         <v>1213</v>
       </c>
@@ -15817,7 +15829,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="18.75">
+    <row r="607" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4" t="s">
         <v>1215</v>
       </c>
@@ -15834,7 +15846,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="18.75">
+    <row r="608" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
         <v>1217</v>
       </c>
@@ -15851,7 +15863,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="18.75">
+    <row r="609" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4" t="s">
         <v>1219</v>
       </c>
@@ -15868,7 +15880,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="18.75" hidden="1">
+    <row r="610" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
         <v>1221</v>
       </c>
@@ -15885,7 +15897,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="18.75" hidden="1">
+    <row r="611" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="4" t="s">
         <v>1223</v>
       </c>
@@ -15902,7 +15914,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="18.75">
+    <row r="612" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
         <v>1225</v>
       </c>
@@ -15919,7 +15931,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="18.75">
+    <row r="613" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4" t="s">
         <v>1227</v>
       </c>
@@ -15936,7 +15948,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="18.75" hidden="1">
+    <row r="614" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
         <v>1229</v>
       </c>
@@ -15953,7 +15965,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="18.75" hidden="1">
+    <row r="615" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
         <v>1231</v>
       </c>
@@ -15970,7 +15982,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="18.75" hidden="1">
+    <row r="616" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
         <v>1233</v>
       </c>
@@ -15987,7 +15999,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="18.75" hidden="1">
+    <row r="617" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4" t="s">
         <v>1235</v>
       </c>
@@ -15995,7 +16007,7 @@
         <v>1236</v>
       </c>
       <c r="C617" s="6">
-        <v>7.130000000000001</v>
+        <v>7.1300000000000008</v>
       </c>
       <c r="D617" s="7">
         <v>45352</v>
@@ -16004,7 +16016,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="18.75" hidden="1">
+    <row r="618" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
         <v>1237</v>
       </c>
@@ -16021,7 +16033,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="18.75" hidden="1">
+    <row r="619" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4" t="s">
         <v>1239</v>
       </c>
@@ -16038,7 +16050,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="18.75" hidden="1">
+    <row r="620" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
         <v>1241</v>
       </c>
@@ -16055,7 +16067,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="18.75" hidden="1">
+    <row r="621" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
         <v>1243</v>
       </c>
@@ -16072,7 +16084,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="18.75" hidden="1">
+    <row r="622" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
         <v>1245</v>
       </c>
@@ -16089,7 +16101,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="18.75" hidden="1">
+    <row r="623" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
         <v>1247</v>
       </c>
@@ -16106,7 +16118,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="18.75" hidden="1">
+    <row r="624" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
         <v>1249</v>
       </c>
@@ -16123,7 +16135,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="18.75" hidden="1">
+    <row r="625" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4" t="s">
         <v>1251</v>
       </c>
@@ -16140,7 +16152,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="18.75">
+    <row r="626" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4" t="s">
         <v>1253</v>
       </c>
@@ -16157,7 +16169,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="18.75">
+    <row r="627" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4" t="s">
         <v>1255</v>
       </c>
@@ -16174,7 +16186,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="18.75" hidden="1">
+    <row r="628" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
         <v>1257</v>
       </c>
@@ -16191,7 +16203,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="18.75" hidden="1">
+    <row r="629" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
         <v>1259</v>
       </c>
@@ -16208,7 +16220,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="18.75">
+    <row r="630" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
         <v>1261</v>
       </c>
@@ -16225,7 +16237,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="18.75">
+    <row r="631" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
         <v>1263</v>
       </c>
@@ -16242,7 +16254,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="18.75">
+    <row r="632" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
         <v>1265</v>
       </c>
@@ -16259,7 +16271,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="18.75">
+    <row r="633" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
         <v>1267</v>
       </c>
@@ -16276,7 +16288,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="18.75" hidden="1">
+    <row r="634" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
         <v>1269</v>
       </c>
@@ -16293,7 +16305,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="18.75" hidden="1">
+    <row r="635" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
         <v>1271</v>
       </c>
@@ -16310,7 +16322,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="18.75">
+    <row r="636" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
         <v>1273</v>
       </c>
@@ -16318,7 +16330,7 @@
         <v>1274</v>
       </c>
       <c r="C636" s="6">
-        <v>139.64</v>
+        <v>139.63999999999999</v>
       </c>
       <c r="D636" s="7">
         <v>45383</v>
@@ -16327,7 +16339,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="18.75">
+    <row r="637" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4" t="s">
         <v>1275</v>
       </c>
@@ -16344,7 +16356,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="18.75">
+    <row r="638" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
         <v>1277</v>
       </c>
@@ -16361,7 +16373,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="18.75" hidden="1">
+    <row r="639" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
         <v>1279</v>
       </c>
@@ -16378,7 +16390,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="18.75">
+    <row r="640" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
         <v>1281</v>
       </c>
@@ -16395,7 +16407,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="18.75">
+    <row r="641" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4" t="s">
         <v>1283</v>
       </c>
@@ -16403,7 +16415,7 @@
         <v>1284</v>
       </c>
       <c r="C641" s="6">
-        <v>9.46</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="D641" s="7">
         <v>45383</v>
@@ -16412,7 +16424,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="18.75">
+    <row r="642" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4" t="s">
         <v>1285</v>
       </c>
@@ -16420,7 +16432,7 @@
         <v>1286</v>
       </c>
       <c r="C642" s="6">
-        <v>92.86000000000001</v>
+        <v>92.860000000000014</v>
       </c>
       <c r="D642" s="7">
         <v>45383</v>
@@ -16429,7 +16441,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="18.75" hidden="1">
+    <row r="643" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4" t="s">
         <v>1287</v>
       </c>
@@ -16446,7 +16458,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="18.75">
+    <row r="644" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
         <v>1289</v>
       </c>
@@ -16454,7 +16466,7 @@
         <v>1290</v>
       </c>
       <c r="C644" s="6">
-        <v>141.77</v>
+        <v>141.77000000000001</v>
       </c>
       <c r="D644" s="7">
         <v>45383</v>
@@ -16463,7 +16475,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="18.75" hidden="1">
+    <row r="645" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4" t="s">
         <v>1291</v>
       </c>
@@ -16480,7 +16492,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="18.75">
+    <row r="646" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
         <v>1293</v>
       </c>
@@ -16488,7 +16500,7 @@
         <v>1294</v>
       </c>
       <c r="C646" s="6">
-        <v>77.71000000000001</v>
+        <v>77.710000000000008</v>
       </c>
       <c r="D646" s="7">
         <v>45383</v>
@@ -16497,7 +16509,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="18.75">
+    <row r="647" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4" t="s">
         <v>1295</v>
       </c>
@@ -16514,7 +16526,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="18.75" hidden="1">
+    <row r="648" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
         <v>1297</v>
       </c>
@@ -16531,7 +16543,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="18.75" hidden="1">
+    <row r="649" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4" t="s">
         <v>1299</v>
       </c>
@@ -16539,7 +16551,7 @@
         <v>1300</v>
       </c>
       <c r="C649" s="6">
-        <v>889.2699999999999</v>
+        <v>889.26999999999987</v>
       </c>
       <c r="D649" s="7">
         <v>45352</v>
@@ -16548,7 +16560,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="18.75" hidden="1">
+    <row r="650" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4" t="s">
         <v>1301</v>
       </c>
@@ -16556,7 +16568,7 @@
         <v>1302</v>
       </c>
       <c r="C650" s="6">
-        <v>87.37999999999998</v>
+        <v>87.379999999999981</v>
       </c>
       <c r="D650" s="7">
         <v>45352</v>
@@ -16565,7 +16577,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="18.75">
+    <row r="651" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4" t="s">
         <v>1303</v>
       </c>
@@ -16573,7 +16585,7 @@
         <v>1304</v>
       </c>
       <c r="C651" s="6">
-        <v>57.30000000000001</v>
+        <v>57.300000000000011</v>
       </c>
       <c r="D651" s="7">
         <v>45383</v>
@@ -16582,7 +16594,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="18.75">
+    <row r="652" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4" t="s">
         <v>1305</v>
       </c>
@@ -16599,7 +16611,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="18.75">
+    <row r="653" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4" t="s">
         <v>1307</v>
       </c>
@@ -16616,7 +16628,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="18.75" hidden="1">
+    <row r="654" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4" t="s">
         <v>1309</v>
       </c>
@@ -16633,7 +16645,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="18.75">
+    <row r="655" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4" t="s">
         <v>1311</v>
       </c>
@@ -16650,7 +16662,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="18.75" hidden="1">
+    <row r="656" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
         <v>1313</v>
       </c>
@@ -16658,7 +16670,7 @@
         <v>1314</v>
       </c>
       <c r="C656" s="6">
-        <v>369.4299999999999</v>
+        <v>369.42999999999989</v>
       </c>
       <c r="D656" s="7">
         <v>45352</v>
@@ -16667,7 +16679,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="18.75">
+    <row r="657" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
         <v>1315</v>
       </c>
@@ -16675,7 +16687,7 @@
         <v>1316</v>
       </c>
       <c r="C657" s="6">
-        <v>72.07</v>
+        <v>72.069999999999993</v>
       </c>
       <c r="D657" s="7">
         <v>45383</v>
@@ -16684,7 +16696,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="18.75" hidden="1">
+    <row r="658" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
         <v>1317</v>
       </c>
@@ -16701,7 +16713,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="18.75" hidden="1">
+    <row r="659" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
         <v>1319</v>
       </c>
@@ -16709,7 +16721,7 @@
         <v>1320</v>
       </c>
       <c r="C659" s="6">
-        <v>160.77</v>
+        <v>160.77000000000001</v>
       </c>
       <c r="D659" s="7">
         <v>45352</v>
@@ -16718,7 +16730,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="18.75" hidden="1">
+    <row r="660" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
         <v>1321</v>
       </c>
@@ -16726,7 +16738,7 @@
         <v>1322</v>
       </c>
       <c r="C660" s="6">
-        <v>71.60000000000001</v>
+        <v>71.600000000000009</v>
       </c>
       <c r="D660" s="7">
         <v>45352</v>
@@ -16735,7 +16747,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="18.75">
+    <row r="661" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
         <v>1323</v>
       </c>
@@ -16752,7 +16764,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="18.75">
+    <row r="662" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
         <v>1325</v>
       </c>
@@ -16769,7 +16781,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="18.75">
+    <row r="663" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
         <v>1327</v>
       </c>
@@ -16786,7 +16798,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="18.75" hidden="1">
+    <row r="664" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
         <v>1329</v>
       </c>
@@ -16794,7 +16806,7 @@
         <v>1330</v>
       </c>
       <c r="C664" s="6">
-        <v>44.32999999999999</v>
+        <v>44.329999999999991</v>
       </c>
       <c r="D664" s="7">
         <v>45352</v>
@@ -16803,7 +16815,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="18.75" hidden="1">
+    <row r="665" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
         <v>1331</v>
       </c>
@@ -16820,7 +16832,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="18.75" hidden="1">
+    <row r="666" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
         <v>1333</v>
       </c>
@@ -16837,7 +16849,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="18.75" hidden="1">
+    <row r="667" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
         <v>1335</v>
       </c>
@@ -16854,7 +16866,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="18.75" hidden="1">
+    <row r="668" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
         <v>1337</v>
       </c>
@@ -16871,7 +16883,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="18.75" hidden="1">
+    <row r="669" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
         <v>1339</v>
       </c>
@@ -16888,7 +16900,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="18.75" hidden="1">
+    <row r="670" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
         <v>1341</v>
       </c>
@@ -16905,7 +16917,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="18.75" hidden="1">
+    <row r="671" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
         <v>1343</v>
       </c>
@@ -16922,7 +16934,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="18.75">
+    <row r="672" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
         <v>1345</v>
       </c>
@@ -16939,7 +16951,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="18.75" hidden="1">
+    <row r="673" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
         <v>1347</v>
       </c>
@@ -16947,7 +16959,7 @@
         <v>1348</v>
       </c>
       <c r="C673" s="6">
-        <v>73.32</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="D673" s="7">
         <v>45352</v>
@@ -16956,7 +16968,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="18.75">
+    <row r="674" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
         <v>1349</v>
       </c>
@@ -16973,7 +16985,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="18.75" hidden="1">
+    <row r="675" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
         <v>1351</v>
       </c>
@@ -16990,7 +17002,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="18.75" hidden="1">
+    <row r="676" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
         <v>1353</v>
       </c>
@@ -16998,7 +17010,7 @@
         <v>1354</v>
       </c>
       <c r="C676" s="6">
-        <v>49.36000000000001</v>
+        <v>49.360000000000007</v>
       </c>
       <c r="D676" s="7">
         <v>45352</v>
@@ -17007,7 +17019,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="18.75" hidden="1">
+    <row r="677" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
         <v>1355</v>
       </c>
@@ -17024,7 +17036,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="18.75">
+    <row r="678" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4" t="s">
         <v>1357</v>
       </c>
@@ -17041,7 +17053,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="18.75">
+    <row r="679" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
         <v>1359</v>
       </c>
@@ -17058,7 +17070,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="18.75" hidden="1">
+    <row r="680" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
         <v>1361</v>
       </c>
@@ -17075,7 +17087,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="18.75" hidden="1">
+    <row r="681" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
         <v>1363</v>
       </c>
@@ -17092,7 +17104,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="18.75" hidden="1">
+    <row r="682" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
         <v>1365</v>
       </c>
@@ -17100,7 +17112,7 @@
         <v>1366</v>
       </c>
       <c r="C682" s="6">
-        <v>633.55</v>
+        <v>633.54999999999995</v>
       </c>
       <c r="D682" s="7">
         <v>45352</v>
@@ -17109,7 +17121,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="18.75" hidden="1">
+    <row r="683" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4" t="s">
         <v>1367</v>
       </c>
@@ -17126,7 +17138,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="18.75">
+    <row r="684" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
         <v>1369</v>
       </c>
@@ -17143,7 +17155,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="18.75" hidden="1">
+    <row r="685" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4" t="s">
         <v>1371</v>
       </c>
@@ -17151,7 +17163,7 @@
         <v>1372</v>
       </c>
       <c r="C685" s="6">
-        <v>18.26</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="D685" s="7">
         <v>45352</v>
@@ -17160,7 +17172,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="18.75">
+    <row r="686" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
         <v>1373</v>
       </c>
@@ -17168,7 +17180,7 @@
         <v>1374</v>
       </c>
       <c r="C686" s="6">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D686" s="7">
         <v>45383</v>
@@ -17177,7 +17189,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="18.75" hidden="1">
+    <row r="687" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
         <v>1375</v>
       </c>
@@ -17194,7 +17206,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="18.75" hidden="1">
+    <row r="688" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
         <v>1377</v>
       </c>
@@ -17202,7 +17214,7 @@
         <v>1378</v>
       </c>
       <c r="C688" s="6">
-        <v>490.0599999999999</v>
+        <v>490.05999999999989</v>
       </c>
       <c r="D688" s="7">
         <v>45352</v>
@@ -17211,7 +17223,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="18.75" hidden="1">
+    <row r="689" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4" t="s">
         <v>1379</v>
       </c>
@@ -17228,7 +17240,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="18.75" hidden="1">
+    <row r="690" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
         <v>1381</v>
       </c>
@@ -17245,7 +17257,7 @@
         <v>45369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="18.75" hidden="1">
+    <row r="691" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4" t="s">
         <v>1383</v>
       </c>
@@ -17262,7 +17274,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="18.75" hidden="1">
+    <row r="692" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
         <v>1385</v>
       </c>
@@ -17279,7 +17291,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="18.75" hidden="1">
+    <row r="693" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
         <v>1387</v>
       </c>
@@ -17296,7 +17308,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="18.75">
+    <row r="694" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
         <v>1389</v>
       </c>
@@ -17313,7 +17325,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="18.75" hidden="1">
+    <row r="695" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4" t="s">
         <v>1391</v>
       </c>
@@ -17330,7 +17342,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="18.75">
+    <row r="696" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
         <v>1393</v>
       </c>
@@ -17338,7 +17350,7 @@
         <v>1394</v>
       </c>
       <c r="C696" s="6">
-        <v>573.2599999999999</v>
+        <v>573.25999999999988</v>
       </c>
       <c r="D696" s="7">
         <v>45383</v>
@@ -17347,7 +17359,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="18.75">
+    <row r="697" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4" t="s">
         <v>1395</v>
       </c>
@@ -17364,7 +17376,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="18.75" hidden="1">
+    <row r="698" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4" t="s">
         <v>1397</v>
       </c>
@@ -17381,7 +17393,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="18.75" hidden="1">
+    <row r="699" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4" t="s">
         <v>1399</v>
       </c>
@@ -17398,7 +17410,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="18.75">
+    <row r="700" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4" t="s">
         <v>1401</v>
       </c>
@@ -17406,16 +17418,16 @@
         <v>1402</v>
       </c>
       <c r="C700" s="6">
-        <v>1296.59</v>
+        <v>1296.5899999999999</v>
       </c>
       <c r="D700" s="7">
         <v>45383</v>
       </c>
       <c r="E700" s="7">
-        <v>45394.46341435185</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="18.75" hidden="1">
+        <v>45394.463414351849</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4" t="s">
         <v>1403</v>
       </c>
@@ -17432,7 +17444,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="18.75" hidden="1">
+    <row r="702" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4" t="s">
         <v>1405</v>
       </c>
@@ -17440,7 +17452,7 @@
         <v>1406</v>
       </c>
       <c r="C702" s="6">
-        <v>96.82000000000001</v>
+        <v>96.820000000000007</v>
       </c>
       <c r="D702" s="7">
         <v>45352</v>
@@ -17449,7 +17461,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="18.75" hidden="1">
+    <row r="703" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4" t="s">
         <v>1407</v>
       </c>
@@ -17466,7 +17478,7 @@
         <v>45374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="18.75">
+    <row r="704" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4" t="s">
         <v>1409</v>
       </c>
@@ -17483,7 +17495,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="18.75" hidden="1">
+    <row r="705" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4" t="s">
         <v>1411</v>
       </c>
@@ -17491,16 +17503,16 @@
         <v>1412</v>
       </c>
       <c r="C705" s="6">
-        <v>2123.009999999999</v>
+        <v>2123.0099999999989</v>
       </c>
       <c r="D705" s="7">
         <v>45352</v>
       </c>
       <c r="E705" s="7">
-        <v>45379.46341435185</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="18.75" hidden="1">
+        <v>45379.463414351849</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4" t="s">
         <v>1413</v>
       </c>
@@ -17508,7 +17520,7 @@
         <v>1414</v>
       </c>
       <c r="C706" s="6">
-        <v>619.45</v>
+        <v>619.45000000000005</v>
       </c>
       <c r="D706" s="7">
         <v>45352</v>
@@ -17517,7 +17529,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="18.75">
+    <row r="707" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="4" t="s">
         <v>1415</v>
       </c>
@@ -17534,7 +17546,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="18.75">
+    <row r="708" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4" t="s">
         <v>1417</v>
       </c>
@@ -17551,7 +17563,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="18.75" hidden="1">
+    <row r="709" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4" t="s">
         <v>1419</v>
       </c>
@@ -17568,7 +17580,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="18.75" hidden="1">
+    <row r="710" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4" t="s">
         <v>1421</v>
       </c>
@@ -17585,7 +17597,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="18.75" hidden="1">
+    <row r="711" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4" t="s">
         <v>1423</v>
       </c>
@@ -17593,7 +17605,7 @@
         <v>1424</v>
       </c>
       <c r="C711" s="6">
-        <v>80.49000000000001</v>
+        <v>80.490000000000009</v>
       </c>
       <c r="D711" s="7">
         <v>45352</v>
@@ -17602,7 +17614,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="18.75" hidden="1">
+    <row r="712" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
         <v>1425</v>
       </c>
@@ -17619,7 +17631,7 @@
         <v>45373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="18.75">
+    <row r="713" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4" t="s">
         <v>1427</v>
       </c>
@@ -17636,7 +17648,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="18.75" hidden="1">
+    <row r="714" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4" t="s">
         <v>1429</v>
       </c>
@@ -17653,7 +17665,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="18.75">
+    <row r="715" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4" t="s">
         <v>1431</v>
       </c>
@@ -17670,7 +17682,7 @@
         <v>45385.625</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="18.75">
+    <row r="716" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
         <v>1433</v>
       </c>
@@ -17687,7 +17699,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="18.75" hidden="1">
+    <row r="717" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4" t="s">
         <v>1435</v>
       </c>
@@ -17704,7 +17716,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="18.75">
+    <row r="718" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
         <v>1437</v>
       </c>
@@ -17721,7 +17733,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="18.75">
+    <row r="719" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4" t="s">
         <v>1439</v>
       </c>
@@ -17729,7 +17741,7 @@
         <v>1440</v>
       </c>
       <c r="C719" s="6">
-        <v>93.03999999999999</v>
+        <v>93.039999999999992</v>
       </c>
       <c r="D719" s="7">
         <v>45383</v>
@@ -17738,7 +17750,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="18.75" hidden="1">
+    <row r="720" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
         <v>1441</v>
       </c>
@@ -17755,7 +17767,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="18.75" hidden="1">
+    <row r="721" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
         <v>1443</v>
       </c>
@@ -17772,7 +17784,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="18.75">
+    <row r="722" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
         <v>1445</v>
       </c>
@@ -17789,7 +17801,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="18.75">
+    <row r="723" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
         <v>1447</v>
       </c>
@@ -17806,7 +17818,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="18.75" hidden="1">
+    <row r="724" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
         <v>1449</v>
       </c>
@@ -17823,7 +17835,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="18.75" hidden="1">
+    <row r="725" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
         <v>1451</v>
       </c>
@@ -17840,7 +17852,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="18.75">
+    <row r="726" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
         <v>1453</v>
       </c>
@@ -17857,7 +17869,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="18.75">
+    <row r="727" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4" t="s">
         <v>1455</v>
       </c>
@@ -17874,7 +17886,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="18.75">
+    <row r="728" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
         <v>1457</v>
       </c>
@@ -17891,7 +17903,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="18.75">
+    <row r="729" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
         <v>1459</v>
       </c>
@@ -17908,7 +17920,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="18.75">
+    <row r="730" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
         <v>1461</v>
       </c>
@@ -17925,7 +17937,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="18.75" hidden="1">
+    <row r="731" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
         <v>1463</v>
       </c>
@@ -17933,7 +17945,7 @@
         <v>1464</v>
       </c>
       <c r="C731" s="6">
-        <v>69.68</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="D731" s="7">
         <v>45352</v>
@@ -17942,7 +17954,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="18.75" hidden="1">
+    <row r="732" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
         <v>1465</v>
       </c>
@@ -17950,7 +17962,7 @@
         <v>1466</v>
       </c>
       <c r="C732" s="6">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="D732" s="7">
         <v>45352</v>
@@ -17959,7 +17971,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="18.75" hidden="1">
+    <row r="733" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4" t="s">
         <v>1467</v>
       </c>
@@ -17967,7 +17979,7 @@
         <v>1468</v>
       </c>
       <c r="C733" s="6">
-        <v>39.41</v>
+        <v>39.409999999999997</v>
       </c>
       <c r="D733" s="7">
         <v>45352</v>
@@ -17976,7 +17988,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="18.75">
+    <row r="734" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
         <v>1469</v>
       </c>
@@ -17984,7 +17996,7 @@
         <v>1470</v>
       </c>
       <c r="C734" s="6">
-        <v>163.67</v>
+        <v>163.66999999999999</v>
       </c>
       <c r="D734" s="7">
         <v>45383</v>
@@ -17993,7 +18005,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="18.75" hidden="1">
+    <row r="735" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4" t="s">
         <v>1471</v>
       </c>
@@ -18010,7 +18022,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="18.75">
+    <row r="736" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4" t="s">
         <v>1473</v>
       </c>
@@ -18018,7 +18030,7 @@
         <v>1474</v>
       </c>
       <c r="C736" s="6">
-        <v>74.07</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="D736" s="7">
         <v>45383</v>
@@ -18027,7 +18039,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="18.75">
+    <row r="737" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4" t="s">
         <v>1475</v>
       </c>
@@ -18044,7 +18056,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="18.75">
+    <row r="738" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4" t="s">
         <v>1477</v>
       </c>
@@ -18061,7 +18073,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="18.75">
+    <row r="739" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4" t="s">
         <v>1479</v>
       </c>
@@ -18078,7 +18090,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="18.75" hidden="1">
+    <row r="740" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
         <v>1481</v>
       </c>
@@ -18095,7 +18107,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="18.75" hidden="1">
+    <row r="741" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4" t="s">
         <v>1483</v>
       </c>
@@ -18112,7 +18124,7 @@
         <v>45378</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="18.75" hidden="1">
+    <row r="742" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
         <v>1485</v>
       </c>
@@ -18129,7 +18141,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="18.75" hidden="1">
+    <row r="743" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4" t="s">
         <v>1487</v>
       </c>
@@ -18137,7 +18149,7 @@
         <v>1488</v>
       </c>
       <c r="C743" s="6">
-        <v>32.73</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="D743" s="7">
         <v>45352</v>
@@ -18146,7 +18158,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="18.75">
+    <row r="744" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
         <v>1489</v>
       </c>
@@ -18163,7 +18175,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="18.75">
+    <row r="745" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
         <v>1491</v>
       </c>
@@ -18171,7 +18183,7 @@
         <v>1492</v>
       </c>
       <c r="C745" s="6">
-        <v>135.39</v>
+        <v>135.38999999999999</v>
       </c>
       <c r="D745" s="7">
         <v>45383</v>
@@ -18180,7 +18192,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="18.75">
+    <row r="746" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
         <v>1493</v>
       </c>
@@ -18197,7 +18209,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="18.75" hidden="1">
+    <row r="747" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4" t="s">
         <v>1495</v>
       </c>
@@ -18214,7 +18226,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="18.75" hidden="1">
+    <row r="748" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
         <v>1497</v>
       </c>
@@ -18231,7 +18243,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="18.75" hidden="1">
+    <row r="749" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4" t="s">
         <v>1499</v>
       </c>
@@ -18248,7 +18260,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="18.75" hidden="1">
+    <row r="750" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4" t="s">
         <v>1501</v>
       </c>
@@ -18265,7 +18277,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="18.75" hidden="1">
+    <row r="751" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
         <v>1503</v>
       </c>
@@ -18273,16 +18285,16 @@
         <v>1504</v>
       </c>
       <c r="C751" s="6">
-        <v>156.55</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="D751" s="7">
         <v>45352</v>
       </c>
       <c r="E751" s="7">
-        <v>45375.78947916667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="18.75">
+        <v>45375.789479166669</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
         <v>1505</v>
       </c>
@@ -18299,7 +18311,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="18.75" hidden="1">
+    <row r="753" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4" t="s">
         <v>1507</v>
       </c>
@@ -18307,7 +18319,7 @@
         <v>1508</v>
       </c>
       <c r="C753" s="6">
-        <v>45.67999999999999</v>
+        <v>45.679999999999993</v>
       </c>
       <c r="D753" s="7">
         <v>45352</v>
@@ -18316,7 +18328,7 @@
         <v>45367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="18.75" hidden="1">
+    <row r="754" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
         <v>1509</v>
       </c>
@@ -18333,7 +18345,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="18.75" hidden="1">
+    <row r="755" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4" t="s">
         <v>1511</v>
       </c>
@@ -18350,7 +18362,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="18.75" hidden="1">
+    <row r="756" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4" t="s">
         <v>1513</v>
       </c>
@@ -18367,7 +18379,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="18.75" hidden="1">
+    <row r="757" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4" t="s">
         <v>1515</v>
       </c>
@@ -18375,7 +18387,7 @@
         <v>1516</v>
       </c>
       <c r="C757" s="6">
-        <v>75.22000000000001</v>
+        <v>75.220000000000013</v>
       </c>
       <c r="D757" s="7">
         <v>45352</v>
@@ -18384,7 +18396,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="18.75">
+    <row r="758" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4" t="s">
         <v>1517</v>
       </c>
@@ -18401,7 +18413,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="18.75">
+    <row r="759" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4" t="s">
         <v>1519</v>
       </c>
@@ -18418,7 +18430,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="18.75" hidden="1">
+    <row r="760" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4" t="s">
         <v>1521</v>
       </c>
@@ -18435,7 +18447,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="18.75">
+    <row r="761" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4" t="s">
         <v>1523</v>
       </c>
@@ -18452,7 +18464,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="18.75" hidden="1">
+    <row r="762" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4" t="s">
         <v>1525</v>
       </c>
@@ -18469,7 +18481,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="18.75">
+    <row r="763" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4" t="s">
         <v>1527</v>
       </c>
@@ -18486,7 +18498,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="18.75">
+    <row r="764" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4" t="s">
         <v>1529</v>
       </c>
@@ -18503,7 +18515,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="18.75">
+    <row r="765" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4" t="s">
         <v>1531</v>
       </c>
@@ -18520,7 +18532,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="18.75" hidden="1">
+    <row r="766" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4" t="s">
         <v>1533</v>
       </c>
@@ -18537,7 +18549,7 @@
         <v>45377</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="18.75" hidden="1">
+    <row r="767" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4" t="s">
         <v>1535</v>
       </c>
@@ -18554,7 +18566,7 @@
         <v>45370</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="18.75">
+    <row r="768" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4" t="s">
         <v>1537</v>
       </c>
@@ -18571,7 +18583,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="18.75">
+    <row r="769" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4" t="s">
         <v>1539</v>
       </c>
@@ -18588,7 +18600,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="18.75">
+    <row r="770" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4" t="s">
         <v>1541</v>
       </c>
@@ -18605,7 +18617,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="18.75" hidden="1">
+    <row r="771" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4" t="s">
         <v>1543</v>
       </c>
@@ -18622,7 +18634,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="18.75">
+    <row r="772" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4" t="s">
         <v>1545</v>
       </c>
@@ -18639,7 +18651,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="18.75">
+    <row r="773" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4" t="s">
         <v>1547</v>
       </c>
@@ -18647,7 +18659,7 @@
         <v>1548</v>
       </c>
       <c r="C773" s="6">
-        <v>46.06999999999999</v>
+        <v>46.069999999999993</v>
       </c>
       <c r="D773" s="7">
         <v>45383</v>
@@ -18656,7 +18668,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="18.75">
+    <row r="774" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4" t="s">
         <v>1549</v>
       </c>
@@ -18673,7 +18685,7 @@
         <v>45393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="18.75" hidden="1">
+    <row r="775" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4" t="s">
         <v>1551</v>
       </c>
@@ -18690,7 +18702,7 @@
         <v>45366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="18.75">
+    <row r="776" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4" t="s">
         <v>1553</v>
       </c>
@@ -18707,7 +18719,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="18.75" hidden="1">
+    <row r="777" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="4" t="s">
         <v>1555</v>
       </c>
@@ -18724,7 +18736,7 @@
         <v>45376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="18.75">
+    <row r="778" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
         <v>1557</v>
       </c>
@@ -18741,7 +18753,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="18.75" hidden="1">
+    <row r="779" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4" t="s">
         <v>1559</v>
       </c>
@@ -18758,7 +18770,7 @@
         <v>45368</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="18.75">
+    <row r="780" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4" t="s">
         <v>1561</v>
       </c>
@@ -18775,7 +18787,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="18.75">
+    <row r="781" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4" t="s">
         <v>1563</v>
       </c>
@@ -18792,7 +18804,7 @@
         <v>45391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="18.75">
+    <row r="782" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4" t="s">
         <v>1565</v>
       </c>
@@ -18809,7 +18821,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="18.75">
+    <row r="783" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4" t="s">
         <v>1567</v>
       </c>
@@ -18826,7 +18838,7 @@
         <v>45394</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="18.75">
+    <row r="784" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4" t="s">
         <v>1569</v>
       </c>
@@ -18843,7 +18855,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="18.75">
+    <row r="785" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4" t="s">
         <v>1571</v>
       </c>
@@ -18860,7 +18872,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="18.75">
+    <row r="786" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4" t="s">
         <v>1573</v>
       </c>
@@ -18868,16 +18880,16 @@
         <v>1574</v>
       </c>
       <c r="C786" s="6">
-        <v>304.6</v>
+        <v>304.60000000000002</v>
       </c>
       <c r="D786" s="7">
         <v>45383</v>
       </c>
       <c r="E786" s="7">
-        <v>45383.81818287037</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="18.75">
+        <v>45383.818182870367</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4" t="s">
         <v>1575</v>
       </c>
@@ -18894,7 +18906,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="18.75">
+    <row r="788" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4" t="s">
         <v>1577</v>
       </c>
@@ -18911,7 +18923,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="18.75">
+    <row r="789" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4" t="s">
         <v>1579</v>
       </c>
@@ -18928,7 +18940,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="18.75" hidden="1">
+    <row r="790" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4" t="s">
         <v>1581</v>
       </c>
@@ -18945,7 +18957,7 @@
         <v>45380</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="18.75">
+    <row r="791" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4" t="s">
         <v>1583</v>
       </c>
@@ -18962,7 +18974,7 @@
         <v>45388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="18.75">
+    <row r="792" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4" t="s">
         <v>1585</v>
       </c>
@@ -18970,7 +18982,7 @@
         <v>1586</v>
       </c>
       <c r="C792" s="6">
-        <v>75.15</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="D792" s="7">
         <v>45383</v>
@@ -18979,7 +18991,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="18.75">
+    <row r="793" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4" t="s">
         <v>1587</v>
       </c>
@@ -18996,7 +19008,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="18.75">
+    <row r="794" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4" t="s">
         <v>1589</v>
       </c>
@@ -19013,7 +19025,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="18.75">
+    <row r="795" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4" t="s">
         <v>1591</v>
       </c>
@@ -19030,7 +19042,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="18.75">
+    <row r="796" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4" t="s">
         <v>1593</v>
       </c>
@@ -19047,7 +19059,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="18.75" hidden="1">
+    <row r="797" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4" t="s">
         <v>1595</v>
       </c>
@@ -19064,7 +19076,7 @@
         <v>45364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="18.75" hidden="1">
+    <row r="798" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4" t="s">
         <v>1597</v>
       </c>
@@ -19081,7 +19093,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="18.75" hidden="1">
+    <row r="799" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4" t="s">
         <v>1599</v>
       </c>
@@ -19089,7 +19101,7 @@
         <v>1600</v>
       </c>
       <c r="C799" s="6">
-        <v>40.81999999999999</v>
+        <v>40.819999999999993</v>
       </c>
       <c r="D799" s="7">
         <v>45352</v>
@@ -19098,7 +19110,7 @@
         <v>45372</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="18.75">
+    <row r="800" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4" t="s">
         <v>1601</v>
       </c>
@@ -19115,7 +19127,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="18.75">
+    <row r="801" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4" t="s">
         <v>1603</v>
       </c>
@@ -19132,7 +19144,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="18.75">
+    <row r="802" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4" t="s">
         <v>1605</v>
       </c>
@@ -19150,6 +19162,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E802" xr:uid="{48C62069-3C7C-49A2-8926-31886510D116}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>